--- a/data/trans_orig/P5707-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5707-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>298374</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>277143</v>
+        <v>276074</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>320025</v>
+        <v>318393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6297780058247644</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5849670566216926</v>
+        <v>0.5827100275183028</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6754781942166024</v>
+        <v>0.6720321954332232</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -765,19 +765,19 @@
         <v>183151</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165817</v>
+        <v>165499</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>200522</v>
+        <v>200456</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5972065406123511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5406854989120282</v>
+        <v>0.5396479935787645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6538476890425443</v>
+        <v>0.6536337479663368</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>469</v>
@@ -786,19 +786,19 @@
         <v>481526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>452443</v>
+        <v>454683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>508005</v>
+        <v>507537</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.616979053738027</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5797155663456344</v>
+        <v>0.5825851062609092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6509069789743555</v>
+        <v>0.6503076099657593</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>129761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112071</v>
+        <v>110190</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152292</v>
+        <v>150602</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2738863929498724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2365479539159865</v>
+        <v>0.2325785274992101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3214425472442864</v>
+        <v>0.3178765712263719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -836,19 +836,19 @@
         <v>86699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72073</v>
+        <v>71875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103975</v>
+        <v>103464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2827017079909767</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.235008851068838</v>
+        <v>0.2343647719604313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3390339567042611</v>
+        <v>0.3373690343239966</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>209</v>
@@ -857,19 +857,19 @@
         <v>216460</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>188318</v>
+        <v>194052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>239905</v>
+        <v>241404</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2773503695964492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.241292412330455</v>
+        <v>0.2486383383582923</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3073902196837195</v>
+        <v>0.3093108185660548</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>33058</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23408</v>
+        <v>23474</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46944</v>
+        <v>46389</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06977578111890061</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04940645908055594</v>
+        <v>0.04954557787929387</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0990838389098027</v>
+        <v>0.0979127161604943</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -907,19 +907,19 @@
         <v>25796</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17769</v>
+        <v>16749</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38276</v>
+        <v>36120</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08411494958022833</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05794008457833665</v>
+        <v>0.05461298478745205</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1248061244667385</v>
+        <v>0.1177784335633453</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -928,19 +928,19 @@
         <v>58855</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46096</v>
+        <v>43443</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74930</v>
+        <v>74389</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07541035509042232</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05906270101107453</v>
+        <v>0.05566297076330377</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09600820323998402</v>
+        <v>0.09531526583140505</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>10746</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5223</v>
+        <v>4747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19750</v>
+        <v>19720</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02268185244132105</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01102434554091587</v>
+        <v>0.01001948162313195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04168738342007085</v>
+        <v>0.04162219848949593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -978,19 +978,19 @@
         <v>9802</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4733</v>
+        <v>4140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17936</v>
+        <v>18115</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03196324942743884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01543367990835482</v>
+        <v>0.01350033284300543</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05848546166826208</v>
+        <v>0.05906757605738748</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -999,19 +999,19 @@
         <v>20549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12398</v>
+        <v>12160</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31628</v>
+        <v>31949</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02632897591423247</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01588547688631549</v>
+        <v>0.0155807382482982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0405255097744272</v>
+        <v>0.04093564845416946</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10620</v>
+        <v>9163</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003877967665141564</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02241530676569528</v>
+        <v>0.01933963015425138</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6212</v>
+        <v>6185</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004013552389005053</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02025479269292477</v>
+        <v>0.02016858118576121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12453</v>
+        <v>10315</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00393124566086897</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01595569385498709</v>
+        <v>0.01321599091691419</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>229814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211733</v>
+        <v>209902</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>247659</v>
+        <v>246902</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6263085436286756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5770316480566817</v>
+        <v>0.5720417385214206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6749414219866119</v>
+        <v>0.6728784710694323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -1195,19 +1195,19 @@
         <v>235260</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215806</v>
+        <v>216820</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>252419</v>
+        <v>253556</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.632649722086388</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5803332652711202</v>
+        <v>0.5830611491482224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6787912528230496</v>
+        <v>0.6818493586573579</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>446</v>
@@ -1216,19 +1216,19 @@
         <v>465074</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>437692</v>
+        <v>436340</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>491289</v>
+        <v>491016</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6295002932889479</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5924377656026717</v>
+        <v>0.5906074198068636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6649832668069624</v>
+        <v>0.6646131259517857</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>83384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68498</v>
+        <v>69710</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>99888</v>
+        <v>103443</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2272444308354533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1866769343285016</v>
+        <v>0.1899797016491711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2722239192313252</v>
+        <v>0.2819126046851808</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -1266,19 +1266,19 @@
         <v>92544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75780</v>
+        <v>76450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110333</v>
+        <v>109572</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2488633038507707</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2037824957936244</v>
+        <v>0.2055861421442245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2967008171475681</v>
+        <v>0.2946547775986054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>175</v>
@@ -1287,19 +1287,19 @@
         <v>175927</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>153891</v>
+        <v>152729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>198570</v>
+        <v>198735</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2381260092458806</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2082985791821195</v>
+        <v>0.2067255009923087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2687738400089058</v>
+        <v>0.2689975747705988</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>38137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27308</v>
+        <v>28342</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51330</v>
+        <v>52282</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1039353768642887</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07442314372712491</v>
+        <v>0.07723942172412154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1398896441156311</v>
+        <v>0.1424838565817133</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1337,19 +1337,19 @@
         <v>35113</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25290</v>
+        <v>24290</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47413</v>
+        <v>47286</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09442355536245575</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06800729268312028</v>
+        <v>0.06531905076876882</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.127499860778062</v>
+        <v>0.1271598920001685</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -1358,19 +1358,19 @@
         <v>73250</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57583</v>
+        <v>56329</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>90051</v>
+        <v>90480</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09914772528666722</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0779413085234433</v>
+        <v>0.07624467669392576</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1218885233237656</v>
+        <v>0.1224689860841631</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>12868</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6584</v>
+        <v>7015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22092</v>
+        <v>22817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03507028200602018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01794344876100991</v>
+        <v>0.01911703750831296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06020706904936129</v>
+        <v>0.0621838910761419</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1408,19 +1408,19 @@
         <v>6252</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2209</v>
+        <v>2963</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12801</v>
+        <v>12656</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01681197052909867</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005940088503173787</v>
+        <v>0.00796743560989579</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03442448799523888</v>
+        <v>0.03403444474181071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1429,19 +1429,19 @@
         <v>19120</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11673</v>
+        <v>11782</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29170</v>
+        <v>31992</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02588019851566635</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01579957389031135</v>
+        <v>0.01594712305166788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03948311259989891</v>
+        <v>0.04330274411865107</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9166</v>
+        <v>9847</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007441366665562214</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02498067082598949</v>
+        <v>0.02683573074341502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>2697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7266</v>
+        <v>7985</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007251448171286824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002146588281095029</v>
+        <v>0.002135210311148934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01953818217114794</v>
+        <v>0.0214733706706529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>5427</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1772</v>
+        <v>1813</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12578</v>
+        <v>13131</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007345773662837988</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00239799388212041</v>
+        <v>0.002454513675657775</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0170247108543244</v>
+        <v>0.01777372339522085</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>307412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>283650</v>
+        <v>284603</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>328569</v>
+        <v>333078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5667736647005965</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5229641279773044</v>
+        <v>0.5247203810266342</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6057804170522494</v>
+        <v>0.6140943744468474</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -1625,19 +1625,19 @@
         <v>96996</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83756</v>
+        <v>83422</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108957</v>
+        <v>108102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.581503727575704</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5021296714372118</v>
+        <v>0.5001273405772706</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6532128598993404</v>
+        <v>0.6480852298048309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>393</v>
@@ -1646,19 +1646,19 @@
         <v>404408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>376301</v>
+        <v>379963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>428869</v>
+        <v>430937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5702381786421803</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5306056538046175</v>
+        <v>0.53576972237424</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6047303174124312</v>
+        <v>0.6076454214138433</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>140690</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>121735</v>
+        <v>121146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163224</v>
+        <v>163282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2593895395090203</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2244424753977721</v>
+        <v>0.2233556659800277</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3009354507437219</v>
+        <v>0.3010431449733445</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -1696,19 +1696,19 @@
         <v>42035</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32714</v>
+        <v>31569</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53651</v>
+        <v>53402</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2520037793889345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1961241861513742</v>
+        <v>0.1892592529727032</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.321646530904454</v>
+        <v>0.3201495015128063</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>184</v>
@@ -1717,19 +1717,19 @@
         <v>182725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>160833</v>
+        <v>160818</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>207753</v>
+        <v>205570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2576524071476594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2267833096794498</v>
+        <v>0.2267629481755059</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2929438970923774</v>
+        <v>0.2898655488503501</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>77965</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>63272</v>
+        <v>62440</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96653</v>
+        <v>96545</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.143743938269868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1166544230922795</v>
+        <v>0.1151199526419545</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1781991785398661</v>
+        <v>0.1779996893490905</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -1767,19 +1767,19 @@
         <v>20881</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13067</v>
+        <v>13449</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30665</v>
+        <v>31947</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1251815512643334</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07834038529595304</v>
+        <v>0.08062846261554278</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1838435382082886</v>
+        <v>0.1915238153878896</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>97</v>
@@ -1788,19 +1788,19 @@
         <v>98846</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>81543</v>
+        <v>80912</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>117173</v>
+        <v>117649</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1393780608723977</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1149798799529517</v>
+        <v>0.1140902568976884</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1652212414693371</v>
+        <v>0.1658923117070318</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>16322</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9681</v>
+        <v>9943</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26191</v>
+        <v>26071</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03009285752051512</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01784939490320242</v>
+        <v>0.01833123078812427</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04828787173190547</v>
+        <v>0.04806746400097105</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1838,19 +1838,19 @@
         <v>4597</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12468</v>
+        <v>11885</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02756107792348748</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005886257846277341</v>
+        <v>0.005943145437332756</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07474444063408561</v>
+        <v>0.07125094909496812</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1859,19 +1859,19 @@
         <v>20919</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12870</v>
+        <v>13621</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32166</v>
+        <v>33809</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02949738241730002</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01814751062949857</v>
+        <v>0.01920603954876478</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04535633667199545</v>
+        <v>0.04767298325098487</v>
       </c>
     </row>
     <row r="20">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7991</v>
+        <v>7971</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0137498638475406</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04790803505727792</v>
+        <v>0.04778521235299708</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8853</v>
+        <v>6986</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00323397092046256</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01248286174554671</v>
+        <v>0.009850171843098084</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>634618</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>600081</v>
+        <v>600371</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>668001</v>
+        <v>671418</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.512477160607078</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4845873386478349</v>
+        <v>0.4848219392749299</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5394355678004153</v>
+        <v>0.5421942070703413</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>374</v>
@@ -2047,19 +2047,19 @@
         <v>380090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>352232</v>
+        <v>352397</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>405436</v>
+        <v>405519</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5321262983616332</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4931254459859762</v>
+        <v>0.4933566703732075</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5676108587212362</v>
+        <v>0.5677274477287646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>992</v>
@@ -2068,19 +2068,19 @@
         <v>1014708</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>969617</v>
+        <v>970091</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1060478</v>
+        <v>1059891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5196649865973565</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4965724211799731</v>
+        <v>0.4968149746780152</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5431054140373588</v>
+        <v>0.5428046823810332</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>389965</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>359564</v>
+        <v>357121</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>422608</v>
+        <v>423190</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3149106504759752</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2903607598223772</v>
+        <v>0.2883882191652702</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3412715445365137</v>
+        <v>0.3417416014786602</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>210</v>
@@ -2118,19 +2118,19 @@
         <v>217066</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>193201</v>
+        <v>193825</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>241764</v>
+        <v>240979</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3038922937053369</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2704810129605954</v>
+        <v>0.2713555364339751</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.338470448456915</v>
+        <v>0.3373704438154061</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>598</v>
@@ -2139,19 +2139,19 @@
         <v>607031</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>565171</v>
+        <v>567525</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>649431</v>
+        <v>651394</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3108800394560186</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2894423653596989</v>
+        <v>0.290648045497553</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3325944832461312</v>
+        <v>0.3335999533473128</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>170872</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>150705</v>
+        <v>150149</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>196028</v>
+        <v>198117</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1379850945299022</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1217000253489839</v>
+        <v>0.1212507103854857</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1583001185980539</v>
+        <v>0.1599870112924862</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>88</v>
@@ -2189,19 +2189,19 @@
         <v>94191</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>75399</v>
+        <v>76529</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>114861</v>
+        <v>114810</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.131868066987995</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1055583188500697</v>
+        <v>0.1071404408799959</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1608050207954565</v>
+        <v>0.1607337247156436</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>263</v>
@@ -2210,19 +2210,19 @@
         <v>265063</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>235315</v>
+        <v>236398</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>297062</v>
+        <v>297854</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1357474324961686</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1205126646082557</v>
+        <v>0.1210673255115375</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1521353244216184</v>
+        <v>0.1525408292898267</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>34754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24257</v>
+        <v>23520</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46785</v>
+        <v>48024</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02806532327297131</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01958838556656282</v>
+        <v>0.01899328994699677</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03778030070335822</v>
+        <v>0.0387808021728064</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -2260,19 +2260,19 @@
         <v>22938</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14896</v>
+        <v>14700</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33123</v>
+        <v>34039</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03211334094503501</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02085481170761941</v>
+        <v>0.02057978784735956</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04637177928908159</v>
+        <v>0.04765404539938817</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -2281,19 +2281,19 @@
         <v>57692</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44462</v>
+        <v>45857</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74449</v>
+        <v>75171</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02954612344831848</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02277023288118854</v>
+        <v>0.02348470265132806</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0381279372184976</v>
+        <v>0.03849758734294033</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>8126</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3658</v>
+        <v>3571</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16454</v>
+        <v>15889</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006561771114073254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002953902802534796</v>
+        <v>0.002883859954675584</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01328737538958284</v>
+        <v>0.01283133482551205</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2344,19 +2344,19 @@
         <v>8126</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3697</v>
+        <v>3812</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16114</v>
+        <v>16320</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004161418002137833</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001893423195369792</v>
+        <v>0.0019521566192469</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008252495954845694</v>
+        <v>0.008358181340104784</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>187322</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>170528</v>
+        <v>164811</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>208391</v>
+        <v>206112</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5343583792548195</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4864508019159233</v>
+        <v>0.4701429501238603</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5944602297454513</v>
+        <v>0.5879594750819557</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>276</v>
@@ -2469,19 +2469,19 @@
         <v>292242</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>268448</v>
+        <v>267518</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>316648</v>
+        <v>316904</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5138298731149984</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.471995406133103</v>
+        <v>0.4703592979476974</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5567415727042416</v>
+        <v>0.5571917656231449</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>457</v>
@@ -2490,19 +2490,19 @@
         <v>479564</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>449803</v>
+        <v>446820</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>510787</v>
+        <v>506876</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5216579165657723</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4892847213502909</v>
+        <v>0.4860405262858226</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.555621776584684</v>
+        <v>0.5513673018798486</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>96806</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>79933</v>
+        <v>81901</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>114778</v>
+        <v>116430</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2761509209655233</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2280178760044606</v>
+        <v>0.2336312302725473</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3274193034524458</v>
+        <v>0.3321295441741619</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>148</v>
@@ -2540,19 +2540,19 @@
         <v>154959</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>135409</v>
+        <v>132410</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>177563</v>
+        <v>175435</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2724552824331977</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2380801694420652</v>
+        <v>0.2328083082972456</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3121968727659062</v>
+        <v>0.3084559994539814</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>241</v>
@@ -2561,19 +2561,19 @@
         <v>251766</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>221370</v>
+        <v>224782</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>279374</v>
+        <v>281779</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2738645237492661</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2408009984694077</v>
+        <v>0.2445129299592526</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3038961676089601</v>
+        <v>0.3065127275658708</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>48947</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36839</v>
+        <v>36181</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>61819</v>
+        <v>62118</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1396281657875079</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1050878010699469</v>
+        <v>0.1032108810058304</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1763448561026019</v>
+        <v>0.1771992403740683</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>85</v>
@@ -2611,19 +2611,19 @@
         <v>88113</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72169</v>
+        <v>72764</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>108019</v>
+        <v>105377</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1549236451215051</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1268906238065669</v>
+        <v>0.1279356910682154</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1899228781506885</v>
+        <v>0.185277398904692</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>134</v>
@@ -2632,19 +2632,19 @@
         <v>137060</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>114785</v>
+        <v>117589</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>159611</v>
+        <v>161700</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1490910883825281</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1248606508868715</v>
+        <v>0.1279104446535354</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1736210651475564</v>
+        <v>0.1758938849386974</v>
       </c>
     </row>
     <row r="31">
@@ -2661,19 +2661,19 @@
         <v>14579</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8300</v>
+        <v>7809</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24057</v>
+        <v>23875</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04158738819703667</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02367790464479272</v>
+        <v>0.02227546083034224</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06862490155509215</v>
+        <v>0.06810763096386825</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>29</v>
@@ -2682,19 +2682,19 @@
         <v>32270</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22243</v>
+        <v>21648</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45204</v>
+        <v>47494</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05673902583199215</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03910805049132442</v>
+        <v>0.03806306742835787</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07948011030254619</v>
+        <v>0.08350531135045851</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>43</v>
@@ -2703,19 +2703,19 @@
         <v>46849</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32973</v>
+        <v>35175</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>62419</v>
+        <v>61911</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0509613196049064</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03586736462712298</v>
+        <v>0.03826213945844197</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06789754917382883</v>
+        <v>0.06734525657394214</v>
       </c>
     </row>
     <row r="32">
@@ -2732,19 +2732,19 @@
         <v>2901</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8171</v>
+        <v>7994</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008275145795112517</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0</v>
+        <v>0.002501034594887745</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02330802187464863</v>
+        <v>0.02280333382447498</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01031532571972498</v>
+        <v>0.01031548938844176</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -2774,19 +2774,19 @@
         <v>4068</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9347</v>
+        <v>10203</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004425151697527124</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001136224538581947</v>
+        <v>0.001124203196376019</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01016753198758755</v>
+        <v>0.01109854787583927</v>
       </c>
     </row>
     <row r="33">
@@ -2878,19 +2878,19 @@
         <v>198442</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>181621</v>
+        <v>182145</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>212844</v>
+        <v>213709</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6654647192727247</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6090565227733629</v>
+        <v>0.6108140495976324</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7137587924850483</v>
+        <v>0.7166610698411181</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>681</v>
@@ -2899,19 +2899,19 @@
         <v>681650</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>646286</v>
+        <v>644987</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>717843</v>
+        <v>715402</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5458615981465934</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5175423388009367</v>
+        <v>0.5165021871197604</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5748445306469203</v>
+        <v>0.5728902459937614</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>883</v>
@@ -2920,19 +2920,19 @@
         <v>880092</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>841034</v>
+        <v>843343</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>915770</v>
+        <v>918976</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5689169503705405</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5436687333118418</v>
+        <v>0.545161339951897</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5919804841268463</v>
+        <v>0.5940526891735491</v>
       </c>
     </row>
     <row r="35">
@@ -2949,19 +2949,19 @@
         <v>75451</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>60921</v>
+        <v>61177</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>91003</v>
+        <v>89898</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2530219762750157</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.20429537074949</v>
+        <v>0.2051540619488837</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3051736378213016</v>
+        <v>0.3014669931391938</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>316</v>
@@ -2970,19 +2970,19 @@
         <v>316990</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>289745</v>
+        <v>288617</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>350609</v>
+        <v>347594</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2538435304685003</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2320259394246109</v>
+        <v>0.2311230447279621</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2807654865681743</v>
+        <v>0.2783516776539182</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>394</v>
@@ -2991,19 +2991,19 @@
         <v>392441</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>359500</v>
+        <v>360645</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>430220</v>
+        <v>426328</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2536851631857446</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2323915262304954</v>
+        <v>0.2331313378900533</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2781068031460669</v>
+        <v>0.2755905755084239</v>
       </c>
     </row>
     <row r="36">
@@ -3020,19 +3020,19 @@
         <v>22511</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14853</v>
+        <v>14603</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32223</v>
+        <v>32191</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07548948241444325</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04980902301323617</v>
+        <v>0.04897176967046196</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1080580263734348</v>
+        <v>0.1079516303799969</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>179</v>
@@ -3041,19 +3041,19 @@
         <v>184334</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>160998</v>
+        <v>157960</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>207781</v>
+        <v>209022</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1476134095633252</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1289259171334179</v>
+        <v>0.1264937700930699</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1663894942093158</v>
+        <v>0.1673839130500341</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>203</v>
@@ -3062,19 +3062,19 @@
         <v>206845</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>178985</v>
+        <v>180042</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>232363</v>
+        <v>234187</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1337104066271546</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1157009974734494</v>
+        <v>0.1163843538543945</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1502062218439785</v>
+        <v>0.1513851226554931</v>
       </c>
     </row>
     <row r="37">
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6260</v>
+        <v>5853</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.006023822037816352</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02099384199170235</v>
+        <v>0.01962772791691167</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>54</v>
@@ -3112,19 +3112,19 @@
         <v>57271</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>43923</v>
+        <v>43274</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>73869</v>
+        <v>73752</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04586236228317507</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03517313433065372</v>
+        <v>0.03465363897417331</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05915369072494951</v>
+        <v>0.05906046966971214</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>56</v>
@@ -3133,19 +3133,19 @@
         <v>59067</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>44448</v>
+        <v>45142</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>74496</v>
+        <v>76157</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03818286722655349</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02873251219922201</v>
+        <v>0.02918117711910987</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0481563892358524</v>
+        <v>0.04922987260625156</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>8515</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4125</v>
+        <v>4098</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16895</v>
+        <v>16869</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.006819099538405925</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003303258841317941</v>
+        <v>0.003281586445012221</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01352971955387785</v>
+        <v>0.01350849693848839</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -3196,19 +3196,19 @@
         <v>8515</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4143</v>
+        <v>3959</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>16879</v>
+        <v>16812</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005504612590006763</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002678073082321911</v>
+        <v>0.002558894148201912</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01091085602534089</v>
+        <v>0.01086780700508302</v>
       </c>
     </row>
     <row r="39">
@@ -3300,19 +3300,19 @@
         <v>1855982</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1800611</v>
+        <v>1798703</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1913938</v>
+        <v>1913967</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5675456372779816</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5506137141902732</v>
+        <v>0.5500301315131649</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5852681364604435</v>
+        <v>0.5852768960926106</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1836</v>
@@ -3321,19 +3321,19 @@
         <v>1869389</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1808805</v>
+        <v>1811729</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1924166</v>
+        <v>1927503</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5535414876885241</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5356018720793482</v>
+        <v>0.5364677742279831</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.569761217807213</v>
+        <v>0.5707493034004123</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3640</v>
@@ -3342,19 +3342,19 @@
         <v>3725371</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3644308</v>
+        <v>3641885</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3809482</v>
+        <v>3805855</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5604309008107565</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5482360539323662</v>
+        <v>0.5478714643935858</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5730841216175139</v>
+        <v>0.5725385932139803</v>
       </c>
     </row>
     <row r="41">
@@ -3371,19 +3371,19 @@
         <v>916057</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>866364</v>
+        <v>867577</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>967714</v>
+        <v>974363</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2801234449609827</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2649278628638098</v>
+        <v>0.2652985933815758</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2959198948784932</v>
+        <v>0.297952970975737</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>892</v>
@@ -3392,19 +3392,19 @@
         <v>910292</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>858945</v>
+        <v>858817</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>962200</v>
+        <v>964427</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2695449499975804</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2543405277627482</v>
+        <v>0.2543026806831157</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2849154005123367</v>
+        <v>0.2855747555008307</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1801</v>
@@ -3413,19 +3413,19 @@
         <v>1826349</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1751834</v>
+        <v>1758239</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1895423</v>
+        <v>1901194</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.274749094779724</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.263539281525944</v>
+        <v>0.2645029337823424</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2851402802618805</v>
+        <v>0.2860085113860634</v>
       </c>
     </row>
     <row r="42">
@@ -3442,19 +3442,19 @@
         <v>391491</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>349984</v>
+        <v>354516</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>424923</v>
+        <v>431373</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.119715003838224</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1070224873600328</v>
+        <v>0.1084082726569446</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1299384580580417</v>
+        <v>0.1319108058167035</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>429</v>
@@ -3463,19 +3463,19 @@
         <v>448428</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>409206</v>
+        <v>410360</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>490982</v>
+        <v>488195</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1327831850759676</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1211693836840915</v>
+        <v>0.1215108317967471</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1453836723437245</v>
+        <v>0.1445585631586764</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>822</v>
@@ -3484,19 +3484,19 @@
         <v>839919</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>789065</v>
+        <v>787327</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>899923</v>
+        <v>894677</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.126354226378554</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1187040347872794</v>
+        <v>0.1184424782015776</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1353809809895479</v>
+        <v>0.1345918167885503</v>
       </c>
     </row>
     <row r="43">
@@ -3513,19 +3513,19 @@
         <v>91066</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>73003</v>
+        <v>73359</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>112188</v>
+        <v>113695</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02784727867886845</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0223237842777537</v>
+        <v>0.02243267540930976</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03430620093619398</v>
+        <v>0.03476704275044332</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>123</v>
@@ -3534,19 +3534,19 @@
         <v>133131</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>112288</v>
+        <v>112976</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>159089</v>
+        <v>161046</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03942121030774853</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0332493447377495</v>
+        <v>0.0334530855728039</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0471076785822234</v>
+        <v>0.04768700993918382</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>210</v>
@@ -3555,19 +3555,19 @@
         <v>224197</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>195550</v>
+        <v>196348</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>254111</v>
+        <v>257344</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03372735535922272</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02941778011511879</v>
+        <v>0.02953791932305033</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03822747741734172</v>
+        <v>0.03871382464510602</v>
       </c>
     </row>
     <row r="44">
@@ -3584,19 +3584,19 @@
         <v>15594</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>8889</v>
+        <v>8414</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26660</v>
+        <v>25847</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.004768635243943273</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002718181308124252</v>
+        <v>0.002572799784233054</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.008152341482976515</v>
+        <v>0.007903828830772008</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>15</v>
@@ -3605,19 +3605,19 @@
         <v>15904</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>9063</v>
+        <v>9335</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>25981</v>
+        <v>25582</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.004709166930179412</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.002683579592400718</v>
+        <v>0.002764172342663977</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.007693269368584926</v>
+        <v>0.007574910857430192</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>29</v>
@@ -3626,19 +3626,19 @@
         <v>31498</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>21688</v>
+        <v>21074</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>45309</v>
+        <v>45033</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.004738422671742628</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003262663894390857</v>
+        <v>0.003170348240507059</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006816140268021298</v>
+        <v>0.006774605199704825</v>
       </c>
     </row>
     <row r="45">
@@ -3972,19 +3972,19 @@
         <v>292679</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>272127</v>
+        <v>272487</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>312177</v>
+        <v>312390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6710309802948531</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6239112448004741</v>
+        <v>0.6247372227975404</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.715734340387336</v>
+        <v>0.7162240959620384</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>190</v>
@@ -3993,19 +3993,19 @@
         <v>208502</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190141</v>
+        <v>190051</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>224404</v>
+        <v>226125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6630618981855527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6046707107671728</v>
+        <v>0.6043839649907076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7136292217513914</v>
+        <v>0.7191040626363238</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>459</v>
@@ -4014,19 +4014,19 @@
         <v>501181</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>473111</v>
+        <v>474340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>526725</v>
+        <v>529964</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6676925111075115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6302960660093562</v>
+        <v>0.6319335837373421</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7017232367292107</v>
+        <v>0.7060372558863134</v>
       </c>
     </row>
     <row r="5">
@@ -4043,19 +4043,19 @@
         <v>94410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>76446</v>
+        <v>77267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111910</v>
+        <v>112078</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2164549308800454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.175269479319753</v>
+        <v>0.1771517174986214</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2565773635080288</v>
+        <v>0.2569640937763439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -4064,19 +4064,19 @@
         <v>78358</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64093</v>
+        <v>61851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95341</v>
+        <v>94312</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2491862399353176</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2038232072701318</v>
+        <v>0.1966936329864007</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3031944206407884</v>
+        <v>0.299922488543819</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>159</v>
@@ -4085,19 +4085,19 @@
         <v>172767</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149231</v>
+        <v>148209</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198739</v>
+        <v>198000</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2301669826877253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.19881175383267</v>
+        <v>0.197449036819572</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2647674468744173</v>
+        <v>0.263782973429954</v>
       </c>
     </row>
     <row r="6">
@@ -4114,19 +4114,19 @@
         <v>31397</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22139</v>
+        <v>22315</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43636</v>
+        <v>43711</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0719855553241993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05075837159836763</v>
+        <v>0.05116248927950278</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1000459703565183</v>
+        <v>0.1002161096689194</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -4135,19 +4135,19 @@
         <v>19850</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12389</v>
+        <v>11816</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33085</v>
+        <v>31188</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06312504122536076</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03939934517839205</v>
+        <v>0.03757550068320138</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1052131864911139</v>
+        <v>0.09918018124114132</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -4156,19 +4156,19 @@
         <v>51247</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38854</v>
+        <v>38318</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67268</v>
+        <v>67451</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06827364058957057</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0517632146645436</v>
+        <v>0.05104841178575449</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08961740000191398</v>
+        <v>0.08986020961630911</v>
       </c>
     </row>
     <row r="7">
@@ -4185,19 +4185,19 @@
         <v>13640</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7176</v>
+        <v>7400</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23650</v>
+        <v>23192</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03127380060430597</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01645289019288096</v>
+        <v>0.01696669735176309</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05422227580076015</v>
+        <v>0.05317312842792175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4206,19 +4206,19 @@
         <v>4760</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10481</v>
+        <v>9943</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01513856815337967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005882721553765648</v>
+        <v>0.005865462104473445</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03332955735061655</v>
+        <v>0.03161899927693616</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -4227,19 +4227,19 @@
         <v>18401</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10664</v>
+        <v>11197</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28143</v>
+        <v>28746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02451430488959301</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01420637598685437</v>
+        <v>0.01491686778014336</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03749265729474292</v>
+        <v>0.03829668181083356</v>
       </c>
     </row>
     <row r="8">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13819</v>
+        <v>14416</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009254732896596223</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03168284703130055</v>
+        <v>0.03305108460358318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10969</v>
+        <v>10441</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009488252500389279</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03488400074460147</v>
+        <v>0.03320358363924135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -4298,19 +4298,19 @@
         <v>7020</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18685</v>
+        <v>17090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009352560725599705</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002674749409502797</v>
+        <v>0.002657547262999233</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02489269083734352</v>
+        <v>0.02276830505519839</v>
       </c>
     </row>
     <row r="9">
@@ -4402,19 +4402,19 @@
         <v>272838</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>250789</v>
+        <v>250145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>293583</v>
+        <v>292184</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.653493232750788</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6006830822205611</v>
+        <v>0.5991396534279684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7031816254342725</v>
+        <v>0.6998295881831036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -4423,19 +4423,19 @@
         <v>213621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194677</v>
+        <v>194759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>230888</v>
+        <v>232030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6339443330677731</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5777249021699058</v>
+        <v>0.5779690076143665</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6851858455792594</v>
+        <v>0.6885749187686786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>440</v>
@@ -4444,19 +4444,19 @@
         <v>486459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>457662</v>
+        <v>458128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>513641</v>
+        <v>515731</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6447621384529141</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6065938779168211</v>
+        <v>0.6072116477051063</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6807888858510659</v>
+        <v>0.6835585714267607</v>
       </c>
     </row>
     <row r="11">
@@ -4473,19 +4473,19 @@
         <v>104501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85359</v>
+        <v>85991</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123000</v>
+        <v>124547</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2502987214222371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.20445000745334</v>
+        <v>0.2059621913140257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2946054799158947</v>
+        <v>0.2983110388976143</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -4494,19 +4494,19 @@
         <v>83630</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68348</v>
+        <v>67430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101419</v>
+        <v>101878</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2481793870146723</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2028293394574268</v>
+        <v>0.2001053287056204</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3009714489769796</v>
+        <v>0.3023336192730047</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>167</v>
@@ -4515,19 +4515,19 @@
         <v>188131</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>162422</v>
+        <v>161497</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>215054</v>
+        <v>213795</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2493521664313567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2152767961466663</v>
+        <v>0.2140509169773396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2850363477952731</v>
+        <v>0.2833678888941892</v>
       </c>
     </row>
     <row r="12">
@@ -4544,19 +4544,19 @@
         <v>34103</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23349</v>
+        <v>23389</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48674</v>
+        <v>50075</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08168314709836204</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05592421006173516</v>
+        <v>0.0560208970103622</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1165823345248062</v>
+        <v>0.1199375989525055</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -4565,19 +4565,19 @@
         <v>23802</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15236</v>
+        <v>15465</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34705</v>
+        <v>34307</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07063608228895812</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04521330277454629</v>
+        <v>0.04589491155962442</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1029894452923191</v>
+        <v>0.1018093165310097</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -4586,19 +4586,19 @@
         <v>57906</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44371</v>
+        <v>44040</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76918</v>
+        <v>74529</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07674921392925212</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05880999852095346</v>
+        <v>0.05837199855808453</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1019479175578822</v>
+        <v>0.09878166497501577</v>
       </c>
     </row>
     <row r="13">
@@ -4615,19 +4615,19 @@
         <v>6064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2133</v>
+        <v>2068</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12001</v>
+        <v>12707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01452489872861295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00510845241263645</v>
+        <v>0.004954390412634965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02874363751440592</v>
+        <v>0.03043555457058638</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4636,19 +4636,19 @@
         <v>9849</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4747</v>
+        <v>4431</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19734</v>
+        <v>18928</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02922651009081761</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01408813675584401</v>
+        <v>0.01315064661605109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05856219932918693</v>
+        <v>0.05617085390834796</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -4657,19 +4657,19 @@
         <v>15913</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9178</v>
+        <v>9625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26761</v>
+        <v>26876</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02109105627279586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01216449177737727</v>
+        <v>0.01275671439596389</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03546906723306786</v>
+        <v>0.03562209704252806</v>
       </c>
     </row>
     <row r="14">
@@ -4699,19 +4699,19 @@
         <v>6070</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2916</v>
+        <v>2922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13302</v>
+        <v>13065</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01801368753777883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008653324348497618</v>
+        <v>0.008671168688883161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03947376260955996</v>
+        <v>0.03877307446657154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -4720,19 +4720,19 @@
         <v>6070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2035</v>
+        <v>2058</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12925</v>
+        <v>12766</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008045424913681204</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002696628851945349</v>
+        <v>0.00272724254867339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01713037817596505</v>
+        <v>0.01691988413774725</v>
       </c>
     </row>
     <row r="15">
@@ -4824,19 +4824,19 @@
         <v>387328</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>361521</v>
+        <v>362391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>411619</v>
+        <v>413944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6153778749790935</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5743763112481367</v>
+        <v>0.57575889958093</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6539703632804398</v>
+        <v>0.6576639881831955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -4845,19 +4845,19 @@
         <v>151410</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>135749</v>
+        <v>134531</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>166022</v>
+        <v>166399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5820556359433828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5218530127364396</v>
+        <v>0.517172082260963</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6382306009940036</v>
+        <v>0.639677136556119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>510</v>
@@ -4866,19 +4866,19 @@
         <v>538738</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>509796</v>
+        <v>509269</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>571149</v>
+        <v>565386</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.605633452428613</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5730982258204743</v>
+        <v>0.5725052272237141</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6420692901749688</v>
+        <v>0.6355907555590475</v>
       </c>
     </row>
     <row r="17">
@@ -4895,19 +4895,19 @@
         <v>157496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136011</v>
+        <v>136397</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181958</v>
+        <v>179926</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2502258577378414</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2160907082206686</v>
+        <v>0.2167051125813609</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2890912913179593</v>
+        <v>0.2858624846356055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -4916,19 +4916,19 @@
         <v>78830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64656</v>
+        <v>64580</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>94520</v>
+        <v>94277</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3030411577364556</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2485524443764669</v>
+        <v>0.2482622411834522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3633569195417649</v>
+        <v>0.3624243518851337</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>218</v>
@@ -4937,19 +4937,19 @@
         <v>236326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>210425</v>
+        <v>211175</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>264548</v>
+        <v>263492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2656706362164228</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2365540202330637</v>
+        <v>0.2373963793473712</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2973972491981007</v>
+        <v>0.2962106420613428</v>
       </c>
     </row>
     <row r="18">
@@ -4966,19 +4966,19 @@
         <v>71685</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56696</v>
+        <v>57298</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90380</v>
+        <v>92022</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1138921752647359</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09007696565044342</v>
+        <v>0.09103401189195894</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1435938438220574</v>
+        <v>0.1462031189776483</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -4987,19 +4987,19 @@
         <v>25847</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17631</v>
+        <v>17807</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36875</v>
+        <v>37483</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09936066466674343</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06777638340268907</v>
+        <v>0.06845461107944123</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1417554170422048</v>
+        <v>0.1440933870755711</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>91</v>
@@ -5008,19 +5008,19 @@
         <v>97532</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>79307</v>
+        <v>79435</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>119225</v>
+        <v>119269</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1096427255380271</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08915478913383415</v>
+        <v>0.08929898882043422</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1340293162706836</v>
+        <v>0.1340791898465632</v>
       </c>
     </row>
     <row r="19">
@@ -5037,19 +5037,19 @@
         <v>10864</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5864</v>
+        <v>5582</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21190</v>
+        <v>19760</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01726117139806652</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00931732471950153</v>
+        <v>0.008868930537394277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03366629734673014</v>
+        <v>0.03139362742051708</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5058,19 +5058,19 @@
         <v>3087</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8515</v>
+        <v>8483</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01186708959662087</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003742976980739278</v>
+        <v>0.003752321103731101</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03273476779878783</v>
+        <v>0.03261228748722819</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -5079,19 +5079,19 @@
         <v>13951</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7614</v>
+        <v>7811</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22879</v>
+        <v>24543</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01568378002623181</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008559912672354545</v>
+        <v>0.008780992844453458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02572023714835882</v>
+        <v>0.02759101967887433</v>
       </c>
     </row>
     <row r="20">
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7289</v>
+        <v>7111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003242920620262693</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01158061799432394</v>
+        <v>0.01129848489533865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4875</v>
+        <v>5680</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003675452056797277</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01873999498569978</v>
+        <v>0.0218363515022666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -5150,19 +5150,19 @@
         <v>2997</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7886</v>
+        <v>8043</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003369405790705245</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001062180503351567</v>
+        <v>0.001073172271289063</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008865773992155766</v>
+        <v>0.009041220840509141</v>
       </c>
     </row>
     <row r="21">
@@ -5254,19 +5254,19 @@
         <v>671134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>636331</v>
+        <v>635336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>706527</v>
+        <v>704574</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5815055792305631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5513505602823489</v>
+        <v>0.550488271403404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6121724172534775</v>
+        <v>0.6104802807671253</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>431</v>
@@ -5275,19 +5275,19 @@
         <v>461531</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>433354</v>
+        <v>433904</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>488914</v>
+        <v>490973</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6020048371022118</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5652508434124692</v>
+        <v>0.5659686959541675</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6377214075572745</v>
+        <v>0.6404079023400592</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1060</v>
@@ -5296,19 +5296,19 @@
         <v>1132665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1086279</v>
+        <v>1089368</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1177379</v>
+        <v>1180087</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5896875893903843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.56553834902537</v>
+        <v>0.5671462389542139</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6129668204721103</v>
+        <v>0.6143763940682384</v>
       </c>
     </row>
     <row r="23">
@@ -5325,19 +5325,19 @@
         <v>302937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>272383</v>
+        <v>272111</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>334062</v>
+        <v>333106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2624809465355022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2360071408383339</v>
+        <v>0.2357710632987534</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2894491635110734</v>
+        <v>0.288620617613622</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>192</v>
@@ -5346,19 +5346,19 @@
         <v>206910</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181301</v>
+        <v>180991</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>231015</v>
+        <v>233470</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2698853986107854</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2364825966086538</v>
+        <v>0.2360786912483273</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3013278589410571</v>
+        <v>0.3045295724528965</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>475</v>
@@ -5367,19 +5367,19 @@
         <v>509847</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>467231</v>
+        <v>474090</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>552114</v>
+        <v>554526</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2654363365543607</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2432495910684521</v>
+        <v>0.2468204846622669</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2874412980472315</v>
+        <v>0.2886968940845823</v>
       </c>
     </row>
     <row r="24">
@@ -5396,19 +5396,19 @@
         <v>142139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>119631</v>
+        <v>121015</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>167515</v>
+        <v>167879</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1231563250583519</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1036548566774367</v>
+        <v>0.1048540835264157</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1451439747696152</v>
+        <v>0.1454589274188623</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>68</v>
@@ -5417,19 +5417,19 @@
         <v>73305</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>58132</v>
+        <v>57394</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92286</v>
+        <v>89847</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09561664198591466</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07582545447199955</v>
+        <v>0.07486270239389618</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1203744410934031</v>
+        <v>0.1171937672995415</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>197</v>
@@ -5438,19 +5438,19 @@
         <v>215444</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>188670</v>
+        <v>187616</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>246042</v>
+        <v>245508</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1121642214364652</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09822546567447182</v>
+        <v>0.09767661000997334</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1280941312036036</v>
+        <v>0.1278161553787188</v>
       </c>
     </row>
     <row r="25">
@@ -5467,19 +5467,19 @@
         <v>27828</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18920</v>
+        <v>19012</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40626</v>
+        <v>39587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02411181771650233</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01639346286545258</v>
+        <v>0.01647327443659092</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03520060760784226</v>
+        <v>0.03430038027688068</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -5488,19 +5488,19 @@
         <v>13337</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6784</v>
+        <v>7037</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23693</v>
+        <v>24608</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01739624228323479</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00884831693751633</v>
+        <v>0.009179389919218784</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03090460803424177</v>
+        <v>0.0320972785199315</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -5509,19 +5509,19 @@
         <v>41165</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27635</v>
+        <v>29582</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55754</v>
+        <v>58305</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02143138378235318</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01438708957730203</v>
+        <v>0.01540076239668861</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02902640684485196</v>
+        <v>0.03035468889784455</v>
       </c>
     </row>
     <row r="26">
@@ -5538,19 +5538,19 @@
         <v>10093</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5104</v>
+        <v>5516</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18274</v>
+        <v>17474</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008745331459080446</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004422807195035535</v>
+        <v>0.004779384617524472</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01583312853603636</v>
+        <v>0.01514043482263167</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -5559,19 +5559,19 @@
         <v>11574</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5587</v>
+        <v>5294</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21514</v>
+        <v>21480</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01509688001785339</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00728758628615677</v>
+        <v>0.006904738368351</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02806256585876366</v>
+        <v>0.02801716439639305</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -5580,19 +5580,19 @@
         <v>21667</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13594</v>
+        <v>13257</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33996</v>
+        <v>33785</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01128046883643657</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007077075934998799</v>
+        <v>0.006902057886078267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01769918240943619</v>
+        <v>0.01758900261007614</v>
       </c>
     </row>
     <row r="27">
@@ -5684,19 +5684,19 @@
         <v>277700</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>254668</v>
+        <v>253138</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>300078</v>
+        <v>300016</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5461395456175854</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5008430894323039</v>
+        <v>0.4978334369841557</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5901478649070651</v>
+        <v>0.590026395943786</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>381</v>
@@ -5705,19 +5705,19 @@
         <v>410542</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>381448</v>
+        <v>378142</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>438332</v>
+        <v>436310</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5406011383895774</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5022901218739181</v>
+        <v>0.4979369338018406</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5771950432462243</v>
+        <v>0.5745327543476831</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>649</v>
@@ -5726,19 +5726,19 @@
         <v>688242</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>651919</v>
+        <v>653520</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>722821</v>
+        <v>726682</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.542822269571324</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5141738655931993</v>
+        <v>0.5154367148528449</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5700945656410082</v>
+        <v>0.57313978328361</v>
       </c>
     </row>
     <row r="29">
@@ -5755,19 +5755,19 @@
         <v>155055</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>134919</v>
+        <v>135425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>177448</v>
+        <v>177869</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3049397594680817</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2653382235685546</v>
+        <v>0.2663337696811844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3489775344553563</v>
+        <v>0.3498055986306722</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>224</v>
@@ -5776,19 +5776,19 @@
         <v>243940</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>216893</v>
+        <v>219416</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>268607</v>
+        <v>273676</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.321220357501181</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2856039879353419</v>
+        <v>0.2889268675001307</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.353701372841868</v>
+        <v>0.3603765479174515</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>370</v>
@@ -5797,19 +5797,19 @@
         <v>398996</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>365706</v>
+        <v>361912</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>434378</v>
+        <v>432848</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3146911619292249</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2884351489564707</v>
+        <v>0.2854431800611469</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3425974275849104</v>
+        <v>0.3413911701622769</v>
       </c>
     </row>
     <row r="30">
@@ -5826,19 +5826,19 @@
         <v>62085</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47437</v>
+        <v>46406</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>79085</v>
+        <v>76926</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1220986039538438</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09329267098349768</v>
+        <v>0.09126454930103109</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1555327359592541</v>
+        <v>0.1512869926659999</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>73</v>
@@ -5847,19 +5847,19 @@
         <v>80459</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>64513</v>
+        <v>64949</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>97504</v>
+        <v>102639</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1059484247367309</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08495079780238377</v>
+        <v>0.0855243674037446</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1283932977422453</v>
+        <v>0.1351550414681721</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>131</v>
@@ -5868,19 +5868,19 @@
         <v>142544</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>119019</v>
+        <v>121378</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168045</v>
+        <v>167617</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1124253169501674</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0938713391901862</v>
+        <v>0.0957320899084541</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1325381150974355</v>
+        <v>0.1322007652055903</v>
       </c>
     </row>
     <row r="31">
@@ -5897,19 +5897,19 @@
         <v>12494</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6209</v>
+        <v>7193</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20895</v>
+        <v>22039</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02457120946692904</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01221070496802811</v>
+        <v>0.014145846775313</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04109367005838342</v>
+        <v>0.04334263109784794</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -5918,19 +5918,19 @@
         <v>18467</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10744</v>
+        <v>11679</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29041</v>
+        <v>29614</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02431712060496762</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01414747354962858</v>
+        <v>0.01537869802472573</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03824063124313722</v>
+        <v>0.03899553991137116</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -5939,19 +5939,19 @@
         <v>30961</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20651</v>
+        <v>20623</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>44976</v>
+        <v>43789</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02441902078511021</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01628752958156896</v>
+        <v>0.01626538311192839</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03547308000823898</v>
+        <v>0.03453671555542529</v>
       </c>
     </row>
     <row r="32">
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6147</v>
+        <v>6326</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002250881493560207</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01208900508292168</v>
+        <v>0.01244068180531019</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -5989,19 +5989,19 @@
         <v>6009</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2061</v>
+        <v>2089</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12103</v>
+        <v>12247</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007912958767543127</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002714108468041839</v>
+        <v>0.002750677168014229</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01593766813066554</v>
+        <v>0.01612740455603161</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -6010,19 +6010,19 @@
         <v>7154</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3087</v>
+        <v>3108</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15133</v>
+        <v>15013</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005642230764173525</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002434459775469066</v>
+        <v>0.002451180767472635</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01193533272316803</v>
+        <v>0.01184107009020421</v>
       </c>
     </row>
     <row r="33">
@@ -6114,19 +6114,19 @@
         <v>174192</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>157975</v>
+        <v>158058</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>189228</v>
+        <v>188510</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6526947661295681</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5919300471235683</v>
+        <v>0.5922411141052709</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7090313710178479</v>
+        <v>0.7063416684973117</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>595</v>
@@ -6135,19 +6135,19 @@
         <v>633750</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>601262</v>
+        <v>598852</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>669640</v>
+        <v>667640</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5718365836540931</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5425223454423197</v>
+        <v>0.5403481965335143</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6042204915668273</v>
+        <v>0.6024161703901261</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>770</v>
@@ -6156,19 +6156,19 @@
         <v>807942</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>771684</v>
+        <v>769169</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>842261</v>
+        <v>845824</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5875290848006217</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5611625334855584</v>
+        <v>0.5593331977206839</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6124850806884549</v>
+        <v>0.6150762231761375</v>
       </c>
     </row>
     <row r="35">
@@ -6185,19 +6185,19 @@
         <v>72997</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>58739</v>
+        <v>59768</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>88557</v>
+        <v>88211</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2735193796221357</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2200935494532889</v>
+        <v>0.2239483865956571</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3318196843728924</v>
+        <v>0.3305232387204409</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>303</v>
@@ -6206,19 +6206,19 @@
         <v>318680</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>287240</v>
+        <v>288480</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>349042</v>
+        <v>348617</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2875474109675709</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2591783166597379</v>
+        <v>0.2602975930868645</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3149426736075577</v>
+        <v>0.3145596353096735</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>373</v>
@@ -6227,19 +6227,19 @@
         <v>391678</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>357787</v>
+        <v>358858</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>427409</v>
+        <v>425043</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2848249295657839</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2601797889713765</v>
+        <v>0.26095864412279</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3108081017694616</v>
+        <v>0.3090874325631665</v>
       </c>
     </row>
     <row r="36">
@@ -6256,19 +6256,19 @@
         <v>15629</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9625</v>
+        <v>9615</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24426</v>
+        <v>25383</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05856076629614836</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03606425727319266</v>
+        <v>0.03602771209312399</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09152545276114614</v>
+        <v>0.09510920257404214</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>115</v>
@@ -6277,19 +6277,19 @@
         <v>122958</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>103729</v>
+        <v>101964</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>144649</v>
+        <v>144929</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1109460890185514</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09359524076604085</v>
+        <v>0.09200301532183001</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1305178706809126</v>
+        <v>0.1307707747124359</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>131</v>
@@ -6298,19 +6298,19 @@
         <v>138587</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>117171</v>
+        <v>118121</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>162295</v>
+        <v>162893</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1007794403045277</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0852054380024394</v>
+        <v>0.0858965262853537</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1180195984811347</v>
+        <v>0.1184541254136027</v>
       </c>
     </row>
     <row r="37">
@@ -6327,19 +6327,19 @@
         <v>3168</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9839</v>
+        <v>8615</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01187056855485703</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003464032999544983</v>
+        <v>0.003450484898602342</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03686460762031158</v>
+        <v>0.0322810094584948</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>26</v>
@@ -6348,19 +6348,19 @@
         <v>28844</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19762</v>
+        <v>19962</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42687</v>
+        <v>42518</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02602639444002992</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01783101323093302</v>
+        <v>0.01801226435158713</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03851667842520409</v>
+        <v>0.03836452257967094</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>29</v>
@@ -6369,19 +6369,19 @@
         <v>32012</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>21734</v>
+        <v>22632</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>45041</v>
+        <v>44700</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02327911139294298</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01580489205150767</v>
+        <v>0.01645746377397474</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03275350589357906</v>
+        <v>0.03250534608338619</v>
       </c>
     </row>
     <row r="38">
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4252</v>
+        <v>4147</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003354519397290823</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01593083837973607</v>
+        <v>0.01554023998699001</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4</v>
@@ -6419,19 +6419,19 @@
         <v>4038</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9469</v>
+        <v>10038</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.003643521919754664</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0008947786049150291</v>
+        <v>0.0008934781153229129</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.008544255198910703</v>
+        <v>0.009057635976159479</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5</v>
@@ -6440,19 +6440,19 @@
         <v>4933</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1846</v>
+        <v>1903</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>10905</v>
+        <v>11707</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.003587433936123706</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001342202146596922</v>
+        <v>0.001384098529482054</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.007929888498483289</v>
+        <v>0.008512979016719428</v>
       </c>
     </row>
     <row r="39">
@@ -6544,19 +6544,19 @@
         <v>2075871</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2017236</v>
+        <v>2014952</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2137027</v>
+        <v>2132072</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6083002715686034</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5911182770426411</v>
+        <v>0.5904489674584137</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6262211418468234</v>
+        <v>0.6247691241741624</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1932</v>
@@ -6565,19 +6565,19 @@
         <v>2079357</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2016238</v>
+        <v>2014182</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2138404</v>
+        <v>2134494</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5864114354352626</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5686107917544454</v>
+        <v>0.5680310778967351</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6030635384384608</v>
+        <v>0.601961105413149</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3888</v>
@@ -6586,19 +6586,19 @@
         <v>4155228</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4062748</v>
+        <v>4071309</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4234378</v>
+        <v>4244310</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5971461580067345</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5838559434811665</v>
+        <v>0.5850861924656483</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6085208427454437</v>
+        <v>0.6099481695776978</v>
       </c>
     </row>
     <row r="41">
@@ -6615,19 +6615,19 @@
         <v>887397</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>836692</v>
+        <v>836955</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>951369</v>
+        <v>942073</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2600372940800935</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2451789253457279</v>
+        <v>0.2452559320422149</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2787833364565911</v>
+        <v>0.2760593406577686</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>937</v>
@@ -6636,19 +6636,19 @@
         <v>1010347</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>955288</v>
+        <v>960411</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1066353</v>
+        <v>1072151</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2849338999970125</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2694062179524191</v>
+        <v>0.270851040587035</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3007283836691345</v>
+        <v>0.3023634673585888</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1762</v>
@@ -6657,19 +6657,19 @@
         <v>1897744</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1821794</v>
+        <v>1819939</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1975231</v>
+        <v>1975757</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2727241070294318</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2618092452469248</v>
+        <v>0.2615427338921893</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2838596257748278</v>
+        <v>0.2839352881091093</v>
       </c>
     </row>
     <row r="42">
@@ -6686,19 +6686,19 @@
         <v>357038</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>321060</v>
+        <v>319989</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>398700</v>
+        <v>392547</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1046241880177826</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0940815343412509</v>
+        <v>0.09376745093958824</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.116832579318074</v>
+        <v>0.1150294767461331</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>319</v>
@@ -6707,19 +6707,19 @@
         <v>346222</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>310116</v>
+        <v>312221</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>384031</v>
+        <v>385030</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09763993312648822</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08745772309768717</v>
+        <v>0.08805126602483802</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1083026728278848</v>
+        <v>0.1085845044051862</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>648</v>
@@ -6728,19 +6728,19 @@
         <v>703260</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>652036</v>
+        <v>649171</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>759498</v>
+        <v>757367</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1010651512682738</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09370385325746176</v>
+        <v>0.09329205332210551</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.109147115192749</v>
+        <v>0.1088409039461102</v>
       </c>
     </row>
     <row r="43">
@@ -6757,19 +6757,19 @@
         <v>74059</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>57471</v>
+        <v>57180</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>92878</v>
+        <v>90943</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02170188097542733</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01684101176108458</v>
+        <v>0.01675565108910671</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02721649781417766</v>
+        <v>0.02664944485327689</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>70</v>
@@ -6778,19 +6778,19 @@
         <v>78344</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>62161</v>
+        <v>62753</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>99484</v>
+        <v>101162</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02209423482254405</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01753026272710741</v>
+        <v>0.01769734768151991</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02805616974138544</v>
+        <v>0.02852921005921785</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>140</v>
@@ -6799,19 +6799,19 @@
         <v>152403</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>130314</v>
+        <v>129030</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>179845</v>
+        <v>180010</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02190181665681835</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01872736076202957</v>
+        <v>0.01854286720051072</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02584543988566471</v>
+        <v>0.02586913086054433</v>
       </c>
     </row>
     <row r="44">
@@ -6828,19 +6828,19 @@
         <v>18211</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10947</v>
+        <v>10758</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>29237</v>
+        <v>30037</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005336365358093099</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003207803270791779</v>
+        <v>0.003152567484497862</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.00856741775921869</v>
+        <v>0.008801961215942757</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>28</v>
@@ -6849,19 +6849,19 @@
         <v>31631</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>21116</v>
+        <v>21818</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>45202</v>
+        <v>46225</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.008920496618692588</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.00595513723276806</v>
+        <v>0.006153107436347977</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01274761003367832</v>
+        <v>0.01303609227815913</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>44</v>
@@ -6870,19 +6870,19 @@
         <v>49842</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>35846</v>
+        <v>36585</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>68834</v>
+        <v>66581</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.007162767038741501</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.005151407981965779</v>
+        <v>0.005257599846081926</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.009892149226769422</v>
+        <v>0.009568317212138454</v>
       </c>
     </row>
     <row r="45">
@@ -7216,19 +7216,19 @@
         <v>237395</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>217306</v>
+        <v>213941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>261111</v>
+        <v>258643</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5543671303412009</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5074544996441342</v>
+        <v>0.4995971913375543</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6097500754095482</v>
+        <v>0.603986616069929</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>191</v>
@@ -7237,19 +7237,19 @@
         <v>197990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>178522</v>
+        <v>180006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>215808</v>
+        <v>216852</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5720253840973707</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5157788047775334</v>
+        <v>0.5200668811288915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6235046576078156</v>
+        <v>0.6265219170715872</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>412</v>
@@ -7258,19 +7258,19 @@
         <v>435385</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>410891</v>
+        <v>403164</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>463580</v>
+        <v>462623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5622600778956109</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5306288335396357</v>
+        <v>0.5206502759014686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5986714833718869</v>
+        <v>0.5974349172294094</v>
       </c>
     </row>
     <row r="5">
@@ -7287,19 +7287,19 @@
         <v>137501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116656</v>
+        <v>115982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158030</v>
+        <v>157638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.321093570764851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2724172745522521</v>
+        <v>0.2708415167815195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3690337323392919</v>
+        <v>0.3681184993053411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -7308,19 +7308,19 @@
         <v>101661</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83938</v>
+        <v>84709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118137</v>
+        <v>120150</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2937142613371432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2425092637269529</v>
+        <v>0.2447393736005214</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.341316271759501</v>
+        <v>0.347134071088549</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>224</v>
@@ -7329,19 +7329,19 @@
         <v>239162</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>213707</v>
+        <v>214043</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263858</v>
+        <v>270287</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.30885547200532</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2759828723665723</v>
+        <v>0.2764175973266796</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3407487153116584</v>
+        <v>0.3490511627818506</v>
       </c>
     </row>
     <row r="6">
@@ -7358,19 +7358,19 @@
         <v>50347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37434</v>
+        <v>38093</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66004</v>
+        <v>67165</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1175708554749049</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08741617598050999</v>
+        <v>0.08895582048737806</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.154133072758086</v>
+        <v>0.1568451526762808</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -7379,19 +7379,19 @@
         <v>42245</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31118</v>
+        <v>30396</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55377</v>
+        <v>55469</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1220530531764524</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08990604745254438</v>
+        <v>0.08782015914331331</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1599933623334873</v>
+        <v>0.1602591098652155</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>83</v>
@@ -7400,19 +7400,19 @@
         <v>92592</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75190</v>
+        <v>75090</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>113971</v>
+        <v>112164</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1195743237609154</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09710139205180009</v>
+        <v>0.09697225694222855</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1471828129581627</v>
+        <v>0.1448491905707169</v>
       </c>
     </row>
     <row r="7">
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6012</v>
+        <v>6963</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004622863023424626</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01403870984356927</v>
+        <v>0.0162596805399805</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7450,19 +7450,19 @@
         <v>4225</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10611</v>
+        <v>10337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0122073013890338</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002858917791088692</v>
+        <v>0.002845386565277893</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03065610362671355</v>
+        <v>0.02986505939874232</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -7471,19 +7471,19 @@
         <v>6205</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2677</v>
+        <v>2416</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13557</v>
+        <v>13361</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008012981609102613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003456893743754472</v>
+        <v>0.003120400498811732</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01750795251756264</v>
+        <v>0.01725490253750687</v>
       </c>
     </row>
     <row r="8">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5024</v>
+        <v>5302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002345580395618717</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01173185502931633</v>
+        <v>0.01238020615470003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6522</v>
+        <v>5801</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001297144729051037</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.008422659730715348</v>
+        <v>0.007491422201709723</v>
       </c>
     </row>
     <row r="9">
@@ -7638,19 +7638,19 @@
         <v>212431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>192012</v>
+        <v>193705</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>230932</v>
+        <v>232393</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5652329250228112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5109001822480882</v>
+        <v>0.5154047518224052</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6144583607585994</v>
+        <v>0.6183460202867709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>199</v>
@@ -7659,19 +7659,19 @@
         <v>210954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>192114</v>
+        <v>191628</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>228497</v>
+        <v>230920</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5682594617155651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.51750968751697</v>
+        <v>0.516201619333814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.615517826722292</v>
+        <v>0.6220435710877259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>401</v>
@@ -7680,19 +7680,19 @@
         <v>423385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>394993</v>
+        <v>392815</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>450022</v>
+        <v>450175</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5667368706594365</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5287316030503584</v>
+        <v>0.5258165010727637</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6023920084611329</v>
+        <v>0.6025965751037431</v>
       </c>
     </row>
     <row r="11">
@@ -7709,19 +7709,19 @@
         <v>111556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93915</v>
+        <v>93176</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131536</v>
+        <v>130299</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2968247811547503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2498856136505143</v>
+        <v>0.247920356210367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3499871078052291</v>
+        <v>0.3466967530478978</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -7730,19 +7730,19 @@
         <v>118300</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101115</v>
+        <v>100229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>137353</v>
+        <v>136302</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3186711206650463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2723808325239616</v>
+        <v>0.2699938758495341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.369996518048061</v>
+        <v>0.3671653583630763</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>217</v>
@@ -7751,19 +7751,19 @@
         <v>229855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>205500</v>
+        <v>206404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>255706</v>
+        <v>258223</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3076806571338545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2750794593606229</v>
+        <v>0.2762887327533954</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.342283831163032</v>
+        <v>0.3456538602794521</v>
       </c>
     </row>
     <row r="12">
@@ -7780,19 +7780,19 @@
         <v>39709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29947</v>
+        <v>28779</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53679</v>
+        <v>53019</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1056570998714015</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07968103905748465</v>
+        <v>0.0765747686541649</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1428280730167872</v>
+        <v>0.1410730642211508</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -7801,19 +7801,19 @@
         <v>37868</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27082</v>
+        <v>26497</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51982</v>
+        <v>52460</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1020065075358674</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07295381493613352</v>
+        <v>0.07137631611779667</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1400282609882552</v>
+        <v>0.1413146509293836</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>71</v>
@@ -7822,19 +7822,19 @@
         <v>77577</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61018</v>
+        <v>61096</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>95255</v>
+        <v>95516</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.103843048706164</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08167820626347261</v>
+        <v>0.08178231782119923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1275065843113674</v>
+        <v>0.127855889792908</v>
       </c>
     </row>
     <row r="13">
@@ -7851,19 +7851,19 @@
         <v>5034</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1996</v>
+        <v>1954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11476</v>
+        <v>11936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01339321235571613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005310087820601302</v>
+        <v>0.005199601937240659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03053502267475089</v>
+        <v>0.03175931644286251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7872,19 +7872,19 @@
         <v>4107</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10051</v>
+        <v>10179</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01106291008352128</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002774846291932871</v>
+        <v>0.00280033435711916</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02707474537564197</v>
+        <v>0.02741847447578289</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -7893,19 +7893,19 @@
         <v>9140</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4053</v>
+        <v>4113</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15692</v>
+        <v>16471</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01223523930266304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005424929258473243</v>
+        <v>0.005505351635277624</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.021005312263488</v>
+        <v>0.02204718188751437</v>
       </c>
     </row>
     <row r="14">
@@ -7922,19 +7922,19 @@
         <v>7100</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2347</v>
+        <v>2832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14887</v>
+        <v>15431</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01889198159532087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006244257329102183</v>
+        <v>0.007534618125233529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03961066095652754</v>
+        <v>0.04105841036815328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7956,19 +7956,19 @@
         <v>7100</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2846</v>
+        <v>3065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14910</v>
+        <v>16036</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009504184197882055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003809885384699757</v>
+        <v>0.004102534053994036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01995860590506707</v>
+        <v>0.02146536929505771</v>
       </c>
     </row>
     <row r="15">
@@ -8060,19 +8060,19 @@
         <v>247350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>223158</v>
+        <v>224763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>268953</v>
+        <v>270597</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4739281721164525</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4275765921115081</v>
+        <v>0.4306510518283733</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5153200110029194</v>
+        <v>0.5184702475399585</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -8081,19 +8081,19 @@
         <v>78993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65812</v>
+        <v>67936</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92402</v>
+        <v>92695</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4799702559418678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3998854471585586</v>
+        <v>0.4127892392472554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5614456360774392</v>
+        <v>0.5632291101033612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>313</v>
@@ -8102,19 +8102,19 @@
         <v>326342</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298431</v>
+        <v>300913</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>355414</v>
+        <v>355117</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4753766908518158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4347184614186854</v>
+        <v>0.4383340491904711</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.517725617331983</v>
+        <v>0.5172929315248345</v>
       </c>
     </row>
     <row r="17">
@@ -8131,19 +8131,19 @@
         <v>177682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>155438</v>
+        <v>156382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199231</v>
+        <v>200162</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3404438149537987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2978220846968311</v>
+        <v>0.2996313195937033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3817311287709937</v>
+        <v>0.383516231864756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -8152,19 +8152,19 @@
         <v>47471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35521</v>
+        <v>35866</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59203</v>
+        <v>59168</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.288443311771548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2158300606978141</v>
+        <v>0.2179295123914228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3597277300879657</v>
+        <v>0.3595158035353524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>218</v>
@@ -8173,19 +8173,19 @@
         <v>225154</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>199381</v>
+        <v>200137</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>252045</v>
+        <v>250135</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3279773041796569</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2904352854233014</v>
+        <v>0.2915357219345138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3671486682798184</v>
+        <v>0.3643669160675099</v>
       </c>
     </row>
     <row r="18">
@@ -8202,19 +8202,19 @@
         <v>76622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61162</v>
+        <v>62216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94007</v>
+        <v>93740</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1468093846868344</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1171886940007662</v>
+        <v>0.1192069227451692</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.180119759607755</v>
+        <v>0.1796080608813984</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -8223,19 +8223,19 @@
         <v>27925</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18966</v>
+        <v>18079</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39779</v>
+        <v>38672</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1696742922380339</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1152424110054355</v>
+        <v>0.1098477357091148</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.241702117540637</v>
+        <v>0.2349778879740997</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>97</v>
@@ -8244,19 +8244,19 @@
         <v>104547</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>87389</v>
+        <v>86694</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>126663</v>
+        <v>126192</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1522909781117626</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1272982079711814</v>
+        <v>0.1262850792798271</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1845083366949425</v>
+        <v>0.1838215959220644</v>
       </c>
     </row>
     <row r="19">
@@ -8273,19 +8273,19 @@
         <v>16527</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9496</v>
+        <v>9438</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27515</v>
+        <v>27570</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03166640803472665</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0181949550094022</v>
+        <v>0.01808298336996055</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05271995023412396</v>
+        <v>0.05282447245078882</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -8294,19 +8294,19 @@
         <v>7750</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3049</v>
+        <v>3009</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17198</v>
+        <v>17475</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04708909608410781</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01852473174864702</v>
+        <v>0.01828442097754055</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1044975500414334</v>
+        <v>0.1061821665538427</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -8315,19 +8315,19 @@
         <v>24277</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14582</v>
+        <v>13956</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36913</v>
+        <v>38522</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03536381661671637</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02124172918776044</v>
+        <v>0.02032906595621997</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05377023298353037</v>
+        <v>0.05611436546277096</v>
       </c>
     </row>
     <row r="20">
@@ -8344,19 +8344,19 @@
         <v>3733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>964</v>
+        <v>929</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9334</v>
+        <v>9229</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007152220208187741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001846266763969109</v>
+        <v>0.00178010880532704</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01788422392592368</v>
+        <v>0.01768350880904977</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8575</v>
+        <v>7719</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01482304396444249</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05210300472895417</v>
+        <v>0.04689884549778724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -8386,19 +8386,19 @@
         <v>6172</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2607</v>
+        <v>2352</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12594</v>
+        <v>12601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008991210240048305</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003797488459278007</v>
+        <v>0.003426146166443874</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01834548743657216</v>
+        <v>0.01835571517085806</v>
       </c>
     </row>
     <row r="21">
@@ -8490,19 +8490,19 @@
         <v>541893</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>509880</v>
+        <v>507206</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>576856</v>
+        <v>577633</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4722072383501165</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4443110286657975</v>
+        <v>0.4419809556211119</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5026742313190625</v>
+        <v>0.5033508879305166</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>420</v>
@@ -8511,19 +8511,19 @@
         <v>432346</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>405793</v>
+        <v>401173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>462985</v>
+        <v>459710</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.523499435346529</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4913482175997816</v>
+        <v>0.4857547293432357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5605984838788621</v>
+        <v>0.5566337942414645</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>942</v>
@@ -8532,19 +8532,19 @@
         <v>974239</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>928428</v>
+        <v>926649</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1024481</v>
+        <v>1017732</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4936726729619021</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4704590519362406</v>
+        <v>0.4695577919819618</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5191317801023521</v>
+        <v>0.5157116341516971</v>
       </c>
     </row>
     <row r="23">
@@ -8561,19 +8561,19 @@
         <v>389206</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>357777</v>
+        <v>354413</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>421766</v>
+        <v>424333</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3391555813873866</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3117680598486368</v>
+        <v>0.3088361191392829</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3675278887077261</v>
+        <v>0.3697648271749819</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>257</v>
@@ -8582,19 +8582,19 @@
         <v>267232</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>240707</v>
+        <v>241049</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>294954</v>
+        <v>297365</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3235739652010878</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2914568650888397</v>
+        <v>0.2918703513438068</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3571407143773333</v>
+        <v>0.3600604634092203</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>626</v>
@@ -8603,19 +8603,19 @@
         <v>656438</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>616665</v>
+        <v>617553</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>700494</v>
+        <v>702336</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3326347812856414</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3124806580246351</v>
+        <v>0.3129305344711157</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.354958758801974</v>
+        <v>0.3558924895151592</v>
       </c>
     </row>
     <row r="24">
@@ -8632,19 +8632,19 @@
         <v>190523</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>166954</v>
+        <v>166439</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>217834</v>
+        <v>218738</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1660218761365948</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1454838951196358</v>
+        <v>0.1450351605807465</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1898214606022693</v>
+        <v>0.1906091500952113</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>98</v>
@@ -8653,19 +8653,19 @@
         <v>101449</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>83564</v>
+        <v>82204</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>121401</v>
+        <v>120015</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.122838349764873</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1011823675580439</v>
+        <v>0.09953506616191206</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1469964225000246</v>
+        <v>0.1453185128468046</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>283</v>
@@ -8674,19 +8674,19 @@
         <v>291972</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>261456</v>
+        <v>263421</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>324793</v>
+        <v>327329</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.147949864877195</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1324866027898333</v>
+        <v>0.1334825264715399</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1645810380308303</v>
+        <v>0.1658664908338742</v>
       </c>
     </row>
     <row r="25">
@@ -8703,19 +8703,19 @@
         <v>23685</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14872</v>
+        <v>15420</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34571</v>
+        <v>34971</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02063933637772793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01295939368797987</v>
+        <v>0.01343690354357193</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03012566114712485</v>
+        <v>0.03047398641436374</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -8724,19 +8724,19 @@
         <v>17630</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10400</v>
+        <v>10534</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28224</v>
+        <v>27994</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02134699584959716</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01259298096329806</v>
+        <v>0.01275531853969684</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03417425961700834</v>
+        <v>0.03389672780538124</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -8745,19 +8745,19 @@
         <v>41315</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30672</v>
+        <v>29622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56816</v>
+        <v>55944</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02093548704021334</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01554245496205337</v>
+        <v>0.01501045450531307</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02879009768854342</v>
+        <v>0.02834823678316429</v>
       </c>
     </row>
     <row r="26">
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7535</v>
+        <v>7989</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001975967748174229</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006566351214999798</v>
+        <v>0.006962041860356324</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -8795,19 +8795,19 @@
         <v>7219</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3066</v>
+        <v>3106</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14372</v>
+        <v>14264</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008741253837913141</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003712625347089283</v>
+        <v>0.003760863688292896</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01740197360586934</v>
+        <v>0.01727089442110244</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -8816,19 +8816,19 @@
         <v>9487</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4306</v>
+        <v>5074</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17771</v>
+        <v>19233</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004807193835048041</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002181978446044134</v>
+        <v>0.002571325294003139</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009005091362831336</v>
+        <v>0.009746045817797011</v>
       </c>
     </row>
     <row r="27">
@@ -8920,19 +8920,19 @@
         <v>284483</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>260482</v>
+        <v>259516</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>308602</v>
+        <v>308892</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4591050161862542</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4203709346053318</v>
+        <v>0.4188133441299332</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4980282928983418</v>
+        <v>0.4984969761567231</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>324</v>
@@ -8941,19 +8941,19 @@
         <v>341787</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>312457</v>
+        <v>314084</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>367304</v>
+        <v>367645</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4629726658364988</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.423243834735377</v>
+        <v>0.4254475390234276</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4975378720525467</v>
+        <v>0.4979993392131573</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>594</v>
@@ -8962,19 +8962,19 @@
         <v>626270</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>588395</v>
+        <v>587694</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>663479</v>
+        <v>662697</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4612077391109378</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4333147136772412</v>
+        <v>0.4327988217865864</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4886092777258907</v>
+        <v>0.4880334451841823</v>
       </c>
     </row>
     <row r="29">
@@ -8991,19 +8991,19 @@
         <v>201550</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>177811</v>
+        <v>178967</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>224975</v>
+        <v>223957</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3252664583208269</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2869546816399258</v>
+        <v>0.2888212059687177</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3630700121879234</v>
+        <v>0.3614263038347656</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>251</v>
@@ -9012,19 +9012,19 @@
         <v>264222</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>239820</v>
+        <v>239595</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>291765</v>
+        <v>291430</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3579055283126855</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3248521575880473</v>
+        <v>0.3245478351039122</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3952150964151797</v>
+        <v>0.3947611081618841</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>447</v>
@@ -9033,19 +9033,19 @@
         <v>465772</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>432337</v>
+        <v>428892</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>502164</v>
+        <v>503084</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3430113232694639</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3183885464925657</v>
+        <v>0.3158516527688929</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3698115239547169</v>
+        <v>0.3704889573488202</v>
       </c>
     </row>
     <row r="30">
@@ -9062,19 +9062,19 @@
         <v>110310</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>91221</v>
+        <v>93024</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>129060</v>
+        <v>130225</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1780212400398986</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1472137852239541</v>
+        <v>0.1501235193414661</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2082798726112401</v>
+        <v>0.2101597943902993</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>94</v>
@@ -9083,19 +9083,19 @@
         <v>99398</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>81782</v>
+        <v>82300</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>119683</v>
+        <v>120161</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1346411210971708</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1107788888153135</v>
+        <v>0.1114810902972118</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1621182678041826</v>
+        <v>0.1627658965953505</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>201</v>
@@ -9104,19 +9104,19 @@
         <v>209708</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>183961</v>
+        <v>184912</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>234537</v>
+        <v>238038</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1544367950086362</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1354754766560264</v>
+        <v>0.1361754578320261</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1727213254105127</v>
+        <v>0.1752998687825204</v>
       </c>
     </row>
     <row r="31">
@@ -9133,19 +9133,19 @@
         <v>18259</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11175</v>
+        <v>11115</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27527</v>
+        <v>28242</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02946618179737837</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01803491490601139</v>
+        <v>0.01793761945431151</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04442425548462385</v>
+        <v>0.04557819375175218</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>26</v>
@@ -9154,19 +9154,19 @@
         <v>27878</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17847</v>
+        <v>18652</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>39907</v>
+        <v>40415</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03776258869321007</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02417527521340237</v>
+        <v>0.02526513514450251</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0540572837153506</v>
+        <v>0.05474514252390825</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>44</v>
@@ -9175,19 +9175,19 @@
         <v>46137</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34095</v>
+        <v>32490</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>61499</v>
+        <v>61403</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03397668469964231</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02510888571896784</v>
+        <v>0.02392715247470768</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04529020871620845</v>
+        <v>0.04521911934363376</v>
       </c>
     </row>
     <row r="32">
@@ -9204,19 +9204,19 @@
         <v>5045</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1887</v>
+        <v>1947</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11178</v>
+        <v>11115</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008141103655641935</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003045921348196982</v>
+        <v>0.003142691405139867</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01803852127311372</v>
+        <v>0.01793738230919506</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -9225,19 +9225,19 @@
         <v>4960</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1837</v>
+        <v>1117</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12253</v>
+        <v>12358</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006718096060434877</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002488386514225241</v>
+        <v>0.001513059471707334</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01659785750267673</v>
+        <v>0.0167397458834067</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -9246,19 +9246,19 @@
         <v>10004</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4831</v>
+        <v>5070</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18944</v>
+        <v>18876</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007367457911319793</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003557943520638257</v>
+        <v>0.003734051150284996</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01395069421149761</v>
+        <v>0.01390114555682696</v>
       </c>
     </row>
     <row r="33">
@@ -9350,19 +9350,19 @@
         <v>150936</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>134636</v>
+        <v>133669</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>168692</v>
+        <v>167473</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5256450964811438</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4688766528775695</v>
+        <v>0.4655115524584925</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5874809358777215</v>
+        <v>0.5832339438257693</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>483</v>
@@ -9371,19 +9371,19 @@
         <v>517334</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>483569</v>
+        <v>483520</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>549155</v>
+        <v>550073</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4796095454334284</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.448306774620464</v>
+        <v>0.448261079102438</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5091106691525054</v>
+        <v>0.5099618012800418</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>627</v>
@@ -9392,19 +9392,19 @@
         <v>668270</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>629836</v>
+        <v>631263</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>706284</v>
+        <v>703758</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4892880310526358</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4611473902152359</v>
+        <v>0.4621926033533936</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5171208682592702</v>
+        <v>0.515271276124606</v>
       </c>
     </row>
     <row r="35">
@@ -9421,19 +9421,19 @@
         <v>106910</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>90117</v>
+        <v>91291</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>122624</v>
+        <v>125856</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.372321757090958</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3138393873271005</v>
+        <v>0.3179274361512796</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4270446811531409</v>
+        <v>0.4383016153420624</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>340</v>
@@ -9442,19 +9442,19 @@
         <v>374027</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>341992</v>
+        <v>341492</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>405810</v>
+        <v>406533</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3467524224770422</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3170539436779781</v>
+        <v>0.3165898903094778</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3762180074609558</v>
+        <v>0.3768885513513652</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>440</v>
@@ -9463,19 +9463,19 @@
         <v>480937</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>442652</v>
+        <v>446828</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>518390</v>
+        <v>517585</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3521281034827281</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3240972869618535</v>
+        <v>0.3271542929626253</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3795499500993164</v>
+        <v>0.3789606045033448</v>
       </c>
     </row>
     <row r="36">
@@ -9492,19 +9492,19 @@
         <v>27201</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17803</v>
+        <v>18382</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>37609</v>
+        <v>38815</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09473048224747131</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0620005804316683</v>
+        <v>0.06401512295695427</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1309744688233276</v>
+        <v>0.1351752227241319</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>140</v>
@@ -9513,19 +9513,19 @@
         <v>156691</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>132966</v>
+        <v>131155</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>182906</v>
+        <v>179895</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.145264789025953</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1232701200115427</v>
+        <v>0.121590689302345</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1695680611094782</v>
+        <v>0.1667771933003556</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>166</v>
@@ -9534,19 +9534,19 @@
         <v>183892</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>160210</v>
+        <v>158678</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>211915</v>
+        <v>212558</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1346404878000329</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.117301451866417</v>
+        <v>0.11617909292107</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1551579825081261</v>
+        <v>0.1556287956332765</v>
       </c>
     </row>
     <row r="37">
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7245</v>
+        <v>6937</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.007302664180426805</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02523225111015896</v>
+        <v>0.0241595522084118</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>21</v>
@@ -9584,19 +9584,19 @@
         <v>24983</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16446</v>
+        <v>16083</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39530</v>
+        <v>37868</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02316081078394313</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01524656091480419</v>
+        <v>0.01490999586895501</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03664712379412842</v>
+        <v>0.03510619359509949</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -9605,19 +9605,19 @@
         <v>27079</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>17062</v>
+        <v>17628</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>40009</v>
+        <v>40234</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01982680390542587</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01249201495643736</v>
+        <v>0.01290635347405419</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02929334048990653</v>
+        <v>0.02945816806701613</v>
       </c>
     </row>
     <row r="38">
@@ -9647,19 +9647,19 @@
         <v>5622</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2104</v>
+        <v>2035</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12645</v>
+        <v>12097</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.00521243227963327</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001950909235758063</v>
+        <v>0.001886623534536753</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01172338437037554</v>
+        <v>0.01121531422984932</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5</v>
@@ -9668,19 +9668,19 @@
         <v>5622</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2076</v>
+        <v>2050</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>12565</v>
+        <v>12426</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.004116573759177336</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001519953962109652</v>
+        <v>0.00150059391328905</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.009199400133639766</v>
+        <v>0.009097929494378789</v>
       </c>
     </row>
     <row r="39">
@@ -9772,19 +9772,19 @@
         <v>1674489</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1613151</v>
+        <v>1614901</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1730328</v>
+        <v>1736315</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4953613633872316</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4772159447661327</v>
+        <v>0.4777335004285979</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5118801669338778</v>
+        <v>0.5136511803191371</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1691</v>
@@ -9793,19 +9793,19 @@
         <v>1779402</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1719448</v>
+        <v>1722954</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1842150</v>
+        <v>1843894</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5048375528687701</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4878278822937546</v>
+        <v>0.4888227425712887</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5226398512465004</v>
+        <v>0.5231347104916166</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3289</v>
@@ -9814,19 +9814,19 @@
         <v>3453891</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3374234</v>
+        <v>3368080</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3535053</v>
+        <v>3534318</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5001985176104893</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.4886624689694222</v>
+        <v>0.4877711626632446</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5119524499175782</v>
+        <v>0.5118460086444494</v>
       </c>
     </row>
     <row r="41">
@@ -9843,19 +9843,19 @@
         <v>1124406</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1065628</v>
+        <v>1068415</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1178570</v>
+        <v>1182758</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3326312828345566</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.315243168212185</v>
+        <v>0.3160676261955777</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3486544106410859</v>
+        <v>0.34989335273266</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1105</v>
@@ -9864,19 +9864,19 @@
         <v>1172912</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1112915</v>
+        <v>1113079</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1229856</v>
+        <v>1226796</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3327690035471099</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3157471516264784</v>
+        <v>0.3157937338892473</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3489248362032403</v>
+        <v>0.3480566890789437</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2172</v>
@@ -9885,19 +9885,19 @@
         <v>2297318</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2228714</v>
+        <v>2216895</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2377679</v>
+        <v>2378172</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3327015828562747</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3227662714114755</v>
+        <v>0.3210545500176382</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3443395346528091</v>
+        <v>0.3444109217176142</v>
       </c>
     </row>
     <row r="42">
@@ -9914,19 +9914,19 @@
         <v>494712</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>452728</v>
+        <v>456065</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>540880</v>
+        <v>538260</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1463499416003959</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1339298707553816</v>
+        <v>0.134916875159042</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1600077684642072</v>
+        <v>0.1592326784168973</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>429</v>
@@ -9935,19 +9935,19 @@
         <v>465575</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>425318</v>
+        <v>424447</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>508778</v>
+        <v>504072</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1320892733025883</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1206677862552848</v>
+        <v>0.1204206157912834</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1443462584821135</v>
+        <v>0.1430113708813976</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>901</v>
@@ -9956,19 +9956,19 @@
         <v>960288</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>902085</v>
+        <v>900624</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1016442</v>
+        <v>1025434</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1390705333511618</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1306414577249082</v>
+        <v>0.1304299500440399</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1472028817512363</v>
+        <v>0.1485051446176424</v>
       </c>
     </row>
     <row r="43">
@@ -9985,19 +9985,19 @@
         <v>67581</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>52527</v>
+        <v>51950</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>86978</v>
+        <v>85487</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01999240469106379</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01553887762027627</v>
+        <v>0.01536835300555317</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02573070237676783</v>
+        <v>0.02528944847364678</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>77</v>
@@ -10006,19 +10006,19 @@
         <v>86572</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>68862</v>
+        <v>69517</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>108995</v>
+        <v>108351</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02456162646185916</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01953685155073454</v>
+        <v>0.01972287018678676</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03092311612035791</v>
+        <v>0.03074034847361626</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>141</v>
@@ -10027,19 +10027,19 @@
         <v>154154</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>131424</v>
+        <v>132300</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>182149</v>
+        <v>182876</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02232478000169501</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01903300413141462</v>
+        <v>0.01915993176329429</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02637907435289817</v>
+        <v>0.02648442062094122</v>
       </c>
     </row>
     <row r="44">
@@ -10056,19 +10056,19 @@
         <v>19150</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11353</v>
+        <v>11842</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>31236</v>
+        <v>30318</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005665007486752021</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003358608963028194</v>
+        <v>0.003503310657427366</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.009240620325262097</v>
+        <v>0.008968903544150073</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>18</v>
@@ -10077,19 +10077,19 @@
         <v>20241</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>12216</v>
+        <v>12316</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>31805</v>
+        <v>31694</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.005742543819672557</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003465907237297893</v>
+        <v>0.003494309754753173</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.009023332978684854</v>
+        <v>0.008992026861058435</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>36</v>
@@ -10098,19 +10098,19 @@
         <v>39390</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>28044</v>
+        <v>27358</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>54874</v>
+        <v>54427</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.005704586180379155</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004061445269090636</v>
+        <v>0.003962021324838386</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.007946911129061816</v>
+        <v>0.007882229081963203</v>
       </c>
     </row>
     <row r="45">
@@ -10444,19 +10444,19 @@
         <v>339365</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>315199</v>
+        <v>315907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>362913</v>
+        <v>365103</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.617159231294465</v>
+        <v>0.6171592312944651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.57321081759599</v>
+        <v>0.5744987241792341</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6599825737797373</v>
+        <v>0.6639656226745059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>474</v>
@@ -10465,19 +10465,19 @@
         <v>343539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>325688</v>
+        <v>325064</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>360686</v>
+        <v>360588</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7043566699657586</v>
+        <v>0.7043566699657585</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6677580577521893</v>
+        <v>0.6664776945513827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7395144414428068</v>
+        <v>0.7393132710558401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>812</v>
@@ -10486,19 +10486,19 @@
         <v>682905</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>650160</v>
+        <v>650598</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>710436</v>
+        <v>712202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6581465559431198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6265885913036039</v>
+        <v>0.6270111338795845</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6846800330036699</v>
+        <v>0.6863818507046651</v>
       </c>
     </row>
     <row r="5">
@@ -10515,19 +10515,19 @@
         <v>165989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>145093</v>
+        <v>142757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189526</v>
+        <v>187620</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3018626027979037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2638612293258793</v>
+        <v>0.2596131690025051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3446669563676202</v>
+        <v>0.3411994256774455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>173</v>
@@ -10536,19 +10536,19 @@
         <v>118304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102773</v>
+        <v>103005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135217</v>
+        <v>136185</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2425574693282804</v>
+        <v>0.2425574693282803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2107151354910029</v>
+        <v>0.2111907855674841</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2772355912776865</v>
+        <v>0.2792189068796301</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -10557,19 +10557,19 @@
         <v>284293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>259925</v>
+        <v>256525</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>313921</v>
+        <v>312000</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2739861101406546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2505014048171063</v>
+        <v>0.2472252125833251</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3025399891669069</v>
+        <v>0.3006882390912934</v>
       </c>
     </row>
     <row r="6">
@@ -10586,19 +10586,19 @@
         <v>30296</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20036</v>
+        <v>19823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43708</v>
+        <v>45468</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05509551675439908</v>
+        <v>0.0550955167543991</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03643718614529894</v>
+        <v>0.03604988721419027</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07948558870798639</v>
+        <v>0.08268738285810517</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -10607,19 +10607,19 @@
         <v>16837</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10616</v>
+        <v>10871</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26244</v>
+        <v>26112</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03452150237366416</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02176688307493093</v>
+        <v>0.02228801662257765</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05380763561671563</v>
+        <v>0.05353690449478186</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -10628,19 +10628,19 @@
         <v>47133</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34228</v>
+        <v>34837</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63261</v>
+        <v>63950</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04542466151370627</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03298673852130527</v>
+        <v>0.03357363307835</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06096789123844731</v>
+        <v>0.06163157103532532</v>
       </c>
     </row>
     <row r="7">
@@ -10657,19 +10657,19 @@
         <v>11490</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6258</v>
+        <v>6090</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19733</v>
+        <v>19939</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02089482375457649</v>
+        <v>0.0208948237545765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01137974528190384</v>
+        <v>0.01107535870132304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03588513103794532</v>
+        <v>0.03626057091313734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -10678,19 +10678,19 @@
         <v>4297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1766</v>
+        <v>1749</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8764</v>
+        <v>9426</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.008809419270225766</v>
+        <v>0.008809419270225764</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00362127298695377</v>
+        <v>0.003586963506891506</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01796924754613462</v>
+        <v>0.0193259143136244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -10699,19 +10699,19 @@
         <v>15786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9553</v>
+        <v>9580</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23852</v>
+        <v>25140</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01521405600888967</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009206808729319471</v>
+        <v>0.009232272756992668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02298756574510848</v>
+        <v>0.02422865637245895</v>
       </c>
     </row>
     <row r="8">
@@ -10731,16 +10731,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9873</v>
+        <v>9556</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.00498782539865558</v>
+        <v>0.004987825398655581</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01795508159168488</v>
+        <v>0.01737829062599992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -10749,19 +10749,19 @@
         <v>4758</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2236</v>
+        <v>2151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9351</v>
+        <v>9371</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.009754939062071132</v>
+        <v>0.00975493906207113</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004583731411449481</v>
+        <v>0.004411078833632285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01917212384934451</v>
+        <v>0.01921290801215954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -10770,19 +10770,19 @@
         <v>7501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3791</v>
+        <v>4030</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14547</v>
+        <v>14832</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00722861639362979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003653866712863525</v>
+        <v>0.003883938533979583</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01401951908642736</v>
+        <v>0.01429443771648786</v>
       </c>
     </row>
     <row r="9">
@@ -10874,19 +10874,19 @@
         <v>272546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>250748</v>
+        <v>248294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>294552</v>
+        <v>295216</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5640300455170749</v>
+        <v>0.5640300455170747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5189199282193361</v>
+        <v>0.5138402499698025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6095714039438191</v>
+        <v>0.6109461237676213</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>365</v>
@@ -10895,19 +10895,19 @@
         <v>263423</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>246014</v>
+        <v>245297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>281231</v>
+        <v>279806</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6235257888425978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5823180628470404</v>
+        <v>0.5806193111564987</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6656770192955108</v>
+        <v>0.6623041674782746</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>627</v>
@@ -10916,19 +10916,19 @@
         <v>535970</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>508646</v>
+        <v>509620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>563205</v>
+        <v>566351</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5917829414699767</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5616135241754566</v>
+        <v>0.5626889748775905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6218549260734693</v>
+        <v>0.6253281018562471</v>
       </c>
     </row>
     <row r="11">
@@ -10945,19 +10945,19 @@
         <v>159715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>138689</v>
+        <v>138449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>180548</v>
+        <v>182314</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3305284113859743</v>
+        <v>0.3305284113859742</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2870151885412954</v>
+        <v>0.2865184661234093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3736423715691292</v>
+        <v>0.3772962925692314</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>171</v>
@@ -10966,19 +10966,19 @@
         <v>122033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>105973</v>
+        <v>106090</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>137858</v>
+        <v>140911</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2888523416135541</v>
+        <v>0.2888523416135542</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2508395400394994</v>
+        <v>0.2511154920267782</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3263122635416771</v>
+        <v>0.3335376350686643</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>339</v>
@@ -10987,19 +10987,19 @@
         <v>281748</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>257265</v>
+        <v>256776</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>309653</v>
+        <v>309712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3110878335652805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2840555618609552</v>
+        <v>0.2835150184248593</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3418987409813133</v>
+        <v>0.3419636732132676</v>
       </c>
     </row>
     <row r="12">
@@ -11016,19 +11016,19 @@
         <v>36649</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26232</v>
+        <v>26110</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49555</v>
+        <v>49638</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07584527516921123</v>
+        <v>0.07584527516921122</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05428731543835087</v>
+        <v>0.05403395270283537</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.102554271606201</v>
+        <v>0.1027241264632701</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -11037,19 +11037,19 @@
         <v>25318</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17038</v>
+        <v>18110</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36085</v>
+        <v>35389</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05992766627825417</v>
+        <v>0.05992766627825418</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04033012356930203</v>
+        <v>0.04286667946013299</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08541462509060321</v>
+        <v>0.08376551772980299</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -11058,19 +11058,19 @@
         <v>61967</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48608</v>
+        <v>48849</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76602</v>
+        <v>77266</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06842021047252045</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05366989987861547</v>
+        <v>0.0539354150586622</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08457859874509645</v>
+        <v>0.08531259057860885</v>
       </c>
     </row>
     <row r="13">
@@ -11087,19 +11087,19 @@
         <v>11515</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5535</v>
+        <v>5553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21632</v>
+        <v>22285</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0238309781025584</v>
+        <v>0.02383097810255839</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01145504187864793</v>
+        <v>0.01149191004413603</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04476625009022683</v>
+        <v>0.04611894648351557</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -11108,19 +11108,19 @@
         <v>7865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4179</v>
+        <v>4333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13763</v>
+        <v>13283</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01861625855147512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009892194197849986</v>
+        <v>0.01025541746633357</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03257728637295215</v>
+        <v>0.03144029050404726</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -11129,19 +11129,19 @@
         <v>19380</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11846</v>
+        <v>12042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30722</v>
+        <v>31136</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02139847518662806</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01307996376126241</v>
+        <v>0.01329626287075501</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0339211524136273</v>
+        <v>0.03437791868055055</v>
       </c>
     </row>
     <row r="14">
@@ -11158,19 +11158,19 @@
         <v>2786</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8519</v>
+        <v>10009</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.005765289825181193</v>
+        <v>0.005765289825181192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001221991477030312</v>
+        <v>0.001238819440119331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01762998551540151</v>
+        <v>0.0207130724680856</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -11179,19 +11179,19 @@
         <v>3835</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1700</v>
+        <v>1337</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8187</v>
+        <v>7995</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.009077944714118717</v>
+        <v>0.009077944714118718</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004023394123697577</v>
+        <v>0.003163568534264588</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01937984927306916</v>
+        <v>0.01892422982947658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -11200,19 +11200,19 @@
         <v>6621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3091</v>
+        <v>3253</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12772</v>
+        <v>12556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007310539305594279</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003413025542941939</v>
+        <v>0.003591514596732383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01410209826776965</v>
+        <v>0.01386396396045097</v>
       </c>
     </row>
     <row r="15">
@@ -11304,19 +11304,19 @@
         <v>256734</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>234835</v>
+        <v>233412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>278998</v>
+        <v>277982</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5443762592923606</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4979404656346931</v>
+        <v>0.4949236398668241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5915840120602818</v>
+        <v>0.5894293837371936</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -11325,19 +11325,19 @@
         <v>109710</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>98209</v>
+        <v>98909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>120739</v>
+        <v>121441</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5851308817571618</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5237900431000555</v>
+        <v>0.5275251757717703</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6439508579039709</v>
+        <v>0.6476963381866737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>422</v>
@@ -11346,19 +11346,19 @@
         <v>366445</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>341265</v>
+        <v>340197</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>389533</v>
+        <v>390388</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5559697606122707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5177673485953911</v>
+        <v>0.5161471986496091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5909998028915349</v>
+        <v>0.5922963553850742</v>
       </c>
     </row>
     <row r="17">
@@ -11375,19 +11375,19 @@
         <v>164591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144486</v>
+        <v>143498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185101</v>
+        <v>186782</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3489974099067244</v>
+        <v>0.3489974099067243</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3063660926485202</v>
+        <v>0.3042714960967913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3924854757519987</v>
+        <v>0.3960492295106682</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>96</v>
@@ -11396,19 +11396,19 @@
         <v>59069</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49395</v>
+        <v>49112</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70720</v>
+        <v>69754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3150377861719968</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2634468575974984</v>
+        <v>0.2619327337343728</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.377178953356558</v>
+        <v>0.3720257562430418</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>267</v>
@@ -11417,19 +11417,19 @@
         <v>223660</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>202319</v>
+        <v>202523</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>249837</v>
+        <v>248959</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3393368875222451</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3069578244668502</v>
+        <v>0.3072681652836828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3790532839534462</v>
+        <v>0.3777199396971888</v>
       </c>
     </row>
     <row r="18">
@@ -11446,19 +11446,19 @@
         <v>33771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23600</v>
+        <v>24552</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46197</v>
+        <v>46144</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07160793336289561</v>
+        <v>0.07160793336289559</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05004059457607683</v>
+        <v>0.05205931770806125</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09795556664689156</v>
+        <v>0.09784389491723934</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -11467,19 +11467,19 @@
         <v>13769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8646</v>
+        <v>8322</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20635</v>
+        <v>20433</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07343702424729279</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04611098626079206</v>
+        <v>0.04438412463394901</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1100568083024557</v>
+        <v>0.1089772727615054</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>62</v>
@@ -11488,19 +11488,19 @@
         <v>47540</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35116</v>
+        <v>37052</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>60024</v>
+        <v>61850</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07212825636676612</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05327813274809445</v>
+        <v>0.05621467447172135</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0910689744440298</v>
+        <v>0.09383817029380812</v>
       </c>
     </row>
     <row r="19">
@@ -11517,19 +11517,19 @@
         <v>13693</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8172</v>
+        <v>8225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21392</v>
+        <v>22290</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02903407008895162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01732863782102339</v>
+        <v>0.01744020124267826</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04535907209096031</v>
+        <v>0.04726281680717806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -11538,19 +11538,19 @@
         <v>2950</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1017</v>
+        <v>760</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8195</v>
+        <v>7479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01573602726081703</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00542606715141974</v>
+        <v>0.004052205335815984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04370651569692013</v>
+        <v>0.03988791382609035</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -11559,19 +11559,19 @@
         <v>16643</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10756</v>
+        <v>10170</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26491</v>
+        <v>24764</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02525116479487478</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01631970525184465</v>
+        <v>0.01542916803253994</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04019169853640706</v>
+        <v>0.0375721648157619</v>
       </c>
     </row>
     <row r="20">
@@ -11588,19 +11588,19 @@
         <v>2822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7252</v>
+        <v>8447</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.005984327349067882</v>
+        <v>0.005984327349067881</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001363692550900407</v>
+        <v>0.001378526463184656</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01537786774761738</v>
+        <v>0.01791068353836895</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -11609,19 +11609,19 @@
         <v>1998</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5853</v>
+        <v>5577</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01065828056273162</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003099415827240888</v>
+        <v>0.003105870531813902</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03121685088284729</v>
+        <v>0.02974571933792474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -11630,19 +11630,19 @@
         <v>4821</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1869</v>
+        <v>1961</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10016</v>
+        <v>10392</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00731393070384338</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002836081699678521</v>
+        <v>0.002975803568620209</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01519616542634841</v>
+        <v>0.01576680494588429</v>
       </c>
     </row>
     <row r="21">
@@ -11734,19 +11734,19 @@
         <v>605803</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>569598</v>
+        <v>568860</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>643699</v>
+        <v>642198</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5363887218964903</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5043327890115599</v>
+        <v>0.5036792962400239</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5699431530090878</v>
+        <v>0.5686136451462867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>687</v>
@@ -11755,19 +11755,19 @@
         <v>496482</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>471692</v>
+        <v>472390</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>521416</v>
+        <v>521600</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5781634078189657</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5492949164660864</v>
+        <v>0.5501076669502675</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6072005548467959</v>
+        <v>0.6074138572199743</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1261</v>
@@ -11776,19 +11776,19 @@
         <v>1102284</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1059434</v>
+        <v>1055288</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1145038</v>
+        <v>1144023</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5544322070114062</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5328792099463882</v>
+        <v>0.5307936720348088</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5759365214103844</v>
+        <v>0.575426254938706</v>
       </c>
     </row>
     <row r="23">
@@ -11805,19 +11805,19 @@
         <v>397760</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>365113</v>
+        <v>363799</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>434752</v>
+        <v>432000</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3521836815826851</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3232775745078321</v>
+        <v>0.3221143116160193</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3849375140976177</v>
+        <v>0.3825009244692252</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>403</v>
@@ -11826,19 +11826,19 @@
         <v>270856</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>248584</v>
+        <v>250065</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>293609</v>
+        <v>296687</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3154170478309941</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2894814685285372</v>
+        <v>0.2912060397830528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3419140588037478</v>
+        <v>0.3454986434252982</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>802</v>
@@ -11847,19 +11847,19 @@
         <v>668615</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>626766</v>
+        <v>628918</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>710907</v>
+        <v>714552</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.336303293874796</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3152535432362694</v>
+        <v>0.3163363418338689</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3575752013455669</v>
+        <v>0.3594089123755044</v>
       </c>
     </row>
     <row r="24">
@@ -11876,19 +11876,19 @@
         <v>86225</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>70566</v>
+        <v>70476</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>103951</v>
+        <v>105007</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07634545596503743</v>
+        <v>0.07634545596503742</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0624804464878009</v>
+        <v>0.0624010004524777</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09204039590373014</v>
+        <v>0.09297490352994413</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>79</v>
@@ -11897,19 +11897,19 @@
         <v>53226</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41425</v>
+        <v>42542</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>65514</v>
+        <v>66630</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06198246121165645</v>
+        <v>0.06198246121165646</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04824067391105853</v>
+        <v>0.04954121104294498</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07629270539382195</v>
+        <v>0.07759252676406732</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>177</v>
@@ -11918,19 +11918,19 @@
         <v>139451</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>118874</v>
+        <v>119681</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>162035</v>
+        <v>163859</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07014173530704883</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05979162206291489</v>
+        <v>0.06019778959107096</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08150118286054171</v>
+        <v>0.08241880629840317</v>
       </c>
     </row>
     <row r="25">
@@ -11947,19 +11947,19 @@
         <v>32561</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23063</v>
+        <v>23282</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45156</v>
+        <v>45472</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02882980286102102</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02041995993118281</v>
+        <v>0.02061435486254025</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03998221465570764</v>
+        <v>0.04026205714506561</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -11968,19 +11968,19 @@
         <v>29465</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21989</v>
+        <v>21786</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39660</v>
+        <v>39416</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03431221343948827</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02560698029287276</v>
+        <v>0.02536984172602254</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04618449673150678</v>
+        <v>0.04590115071167213</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>78</v>
@@ -11989,19 +11989,19 @@
         <v>62025</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47777</v>
+        <v>47296</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77549</v>
+        <v>76317</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0311977869997889</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02403097089815696</v>
+        <v>0.02378931470063404</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03900601845434791</v>
+        <v>0.03838628428562763</v>
       </c>
     </row>
     <row r="26">
@@ -12018,19 +12018,19 @@
         <v>7061</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3636</v>
+        <v>3357</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12857</v>
+        <v>13016</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.006252337694766196</v>
+        <v>0.006252337694766194</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003219137199889404</v>
+        <v>0.002972618764914759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01138424401141872</v>
+        <v>0.01152429597935869</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -12039,19 +12039,19 @@
         <v>8694</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4900</v>
+        <v>5081</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14799</v>
+        <v>15076</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01012486969889551</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005706115314160708</v>
+        <v>0.005916485818320266</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01723425560482896</v>
+        <v>0.01755673824523978</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -12060,19 +12060,19 @@
         <v>15756</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9801</v>
+        <v>9807</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23731</v>
+        <v>23677</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.007924976806959968</v>
+        <v>0.007924976806959966</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004929852013048529</v>
+        <v>0.004932715841913617</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01193650973461992</v>
+        <v>0.01190927711717083</v>
       </c>
     </row>
     <row r="27">
@@ -12164,19 +12164,19 @@
         <v>268654</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>243419</v>
+        <v>240816</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>294784</v>
+        <v>294531</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4768329826409565</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4320427481823226</v>
+        <v>0.427423090123447</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5232111074936522</v>
+        <v>0.5227617089046744</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>601</v>
@@ -12185,19 +12185,19 @@
         <v>392977</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>367139</v>
+        <v>370992</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>417580</v>
+        <v>417465</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4745800940354588</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4433772273632852</v>
+        <v>0.4480299542062171</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5042931274650063</v>
+        <v>0.504153616164583</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>851</v>
@@ -12206,19 +12206,19 @@
         <v>661630</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>628119</v>
+        <v>624950</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>695823</v>
+        <v>694822</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4754923035008455</v>
+        <v>0.4754923035008453</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4514088916915703</v>
+        <v>0.4491311075598051</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5000655924668531</v>
+        <v>0.4993460726205645</v>
       </c>
     </row>
     <row r="29">
@@ -12235,19 +12235,19 @@
         <v>175629</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>153879</v>
+        <v>151432</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>199416</v>
+        <v>198677</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3117229175304942</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2731187474037816</v>
+        <v>0.268775381122851</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3539434020386326</v>
+        <v>0.3526310937722595</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>440</v>
@@ -12256,19 +12256,19 @@
         <v>278273</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>254281</v>
+        <v>256422</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>299458</v>
+        <v>301042</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3360572341146714</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.307083841773875</v>
+        <v>0.3096689978236278</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.361641521390113</v>
+        <v>0.3635545361498614</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>616</v>
@@ -12277,19 +12277,19 @@
         <v>453901</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>424726</v>
+        <v>421853</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>489177</v>
+        <v>487139</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3262041087237259</v>
+        <v>0.3262041087237258</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3052368456066626</v>
+        <v>0.3031721426890103</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.351555804649368</v>
+        <v>0.3500908269773878</v>
       </c>
     </row>
     <row r="30">
@@ -12306,19 +12306,19 @@
         <v>79437</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>63541</v>
+        <v>61390</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>101262</v>
+        <v>101638</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1409929159007149</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1127791626084676</v>
+        <v>0.1089616996139022</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.179729702164883</v>
+        <v>0.1803964905582987</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>148</v>
@@ -12327,19 +12327,19 @@
         <v>93667</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>79939</v>
+        <v>80541</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>110495</v>
+        <v>109770</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1131179838271644</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09653924389533795</v>
+        <v>0.0972662554989004</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1334398149755337</v>
+        <v>0.1325647274316209</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>221</v>
@@ -12348,19 +12348,19 @@
         <v>173105</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>148545</v>
+        <v>150887</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>197455</v>
+        <v>200482</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.12440472779775</v>
+        <v>0.1244047277977499</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1067541346345064</v>
+        <v>0.1084372672758224</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1419045764219289</v>
+        <v>0.1440798381293197</v>
       </c>
     </row>
     <row r="31">
@@ -12377,19 +12377,19 @@
         <v>26547</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17835</v>
+        <v>17458</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38099</v>
+        <v>37510</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04711813462986436</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03165466495041235</v>
+        <v>0.03098604496306229</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06762199828309795</v>
+        <v>0.06657618686075199</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>72</v>
@@ -12398,19 +12398,19 @@
         <v>45380</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>35295</v>
+        <v>36198</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>56484</v>
+        <v>58212</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05480345164672423</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04262375918571707</v>
+        <v>0.04371504329335603</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0682133641709346</v>
+        <v>0.07030007165848802</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>102</v>
@@ -12419,19 +12419,19 @@
         <v>71927</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>56981</v>
+        <v>59001</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>86321</v>
+        <v>87608</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.0516916160636561</v>
+        <v>0.05169161606365608</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04095024950097308</v>
+        <v>0.04240211855422418</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06203586011702387</v>
+        <v>0.06296117399109803</v>
       </c>
     </row>
     <row r="32">
@@ -12448,19 +12448,19 @@
         <v>13146</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7168</v>
+        <v>7397</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21518</v>
+        <v>21460</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02333304929797012</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01272189108888359</v>
+        <v>0.01312831445196535</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03819286684309429</v>
+        <v>0.03808954030132172</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>24</v>
@@ -12469,19 +12469,19 @@
         <v>17754</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11141</v>
+        <v>11544</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30964</v>
+        <v>30981</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02144123637598125</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0134550704131686</v>
+        <v>0.01394073676022162</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03739407629532083</v>
+        <v>0.03741389933482034</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -12490,19 +12490,19 @@
         <v>30901</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21755</v>
+        <v>21865</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>45466</v>
+        <v>45448</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02220724391402273</v>
+        <v>0.02220724391402272</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01563476581390404</v>
+        <v>0.0157140239231669</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03267528421133362</v>
+        <v>0.03266199931000285</v>
       </c>
     </row>
     <row r="33">
@@ -12594,19 +12594,19 @@
         <v>169851</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>147607</v>
+        <v>145876</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>189669</v>
+        <v>186789</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7159818489512564</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6222140527021303</v>
+        <v>0.6149169298696291</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7995223568737038</v>
+        <v>0.7873835659325178</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>545</v>
@@ -12615,19 +12615,19 @@
         <v>422319</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>393662</v>
+        <v>393051</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>451700</v>
+        <v>450810</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5023447647614913</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4682578132237254</v>
+        <v>0.4675308589919883</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.537292730584476</v>
+        <v>0.5362343078021536</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>618</v>
@@ -12636,19 +12636,19 @@
         <v>592170</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>553870</v>
+        <v>555228</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>626628</v>
+        <v>626602</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5493616675245342</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5138301964879578</v>
+        <v>0.5150897385637579</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5813283166198203</v>
+        <v>0.5813046557208261</v>
       </c>
     </row>
     <row r="35">
@@ -12665,19 +12665,19 @@
         <v>52338</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33860</v>
+        <v>37085</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>72957</v>
+        <v>76426</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2206220015458361</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1427323661614103</v>
+        <v>0.1563262681467474</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3075401714935606</v>
+        <v>0.3221613001594885</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>407</v>
@@ -12686,19 +12686,19 @@
         <v>293654</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>268113</v>
+        <v>266900</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>321783</v>
+        <v>320951</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.3492982323624048</v>
+        <v>0.3492982323624047</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3189182533863294</v>
+        <v>0.3174745842865881</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3827582279415609</v>
+        <v>0.3817684535625954</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>433</v>
@@ -12707,19 +12707,19 @@
         <v>345991</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>315322</v>
+        <v>314458</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>383630</v>
+        <v>381920</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3209793763212713</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2925275329490579</v>
+        <v>0.2917254353368294</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3558967059038159</v>
+        <v>0.3543103034235645</v>
       </c>
     </row>
     <row r="36">
@@ -12736,19 +12736,19 @@
         <v>11290</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5024</v>
+        <v>5197</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>21670</v>
+        <v>21208</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04759131353625685</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0211768472343821</v>
+        <v>0.0219074976033801</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09134670747982883</v>
+        <v>0.08939979866084793</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>135</v>
@@ -12757,19 +12757,19 @@
         <v>84924</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>70593</v>
+        <v>70683</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>101720</v>
+        <v>101080</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1010165450927865</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08396916701437515</v>
+        <v>0.08407707720714273</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1209947217971685</v>
+        <v>0.1202339400194241</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>144</v>
@@ -12778,19 +12778,19 @@
         <v>96214</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>81005</v>
+        <v>80877</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>117865</v>
+        <v>115583</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08925880683908893</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07514893042984258</v>
+        <v>0.07502996622060244</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1093443352708433</v>
+        <v>0.1072273878752398</v>
       </c>
     </row>
     <row r="37">
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4308</v>
+        <v>3918</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.00497650938350196</v>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01815791827830359</v>
+        <v>0.0165142677108396</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -12828,19 +12828,19 @@
         <v>33168</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>25225</v>
+        <v>25222</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42136</v>
+        <v>44604</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03945312434252216</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03000439284181935</v>
+        <v>0.03000174722457101</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0501204886583248</v>
+        <v>0.053056489875117</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>57</v>
@@ -12849,19 +12849,19 @@
         <v>34349</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25711</v>
+        <v>26431</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>43829</v>
+        <v>45293</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03186556687666913</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02385203214327389</v>
+        <v>0.02452054517050183</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04066040690624548</v>
+        <v>0.04201828501596543</v>
       </c>
     </row>
     <row r="38">
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8391</v>
+        <v>9119</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01082832658314877</v>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03537200265680202</v>
+        <v>0.03843797054980543</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>12</v>
@@ -12899,19 +12899,19 @@
         <v>6631</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3448</v>
+        <v>3454</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11719</v>
+        <v>11338</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.007887333440795331</v>
+        <v>0.007887333440795329</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.004101528984249124</v>
+        <v>0.004108927066962626</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01393932765639893</v>
+        <v>0.01348668529904913</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>14</v>
@@ -12920,19 +12920,19 @@
         <v>9200</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5182</v>
+        <v>5383</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>16115</v>
+        <v>16719</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.008534582438436503</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004807013374928742</v>
+        <v>0.00499353941619756</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01495017443798938</v>
+        <v>0.015509949594524</v>
       </c>
     </row>
     <row r="39">
@@ -13024,19 +13024,19 @@
         <v>1912953</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1849977</v>
+        <v>1850183</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1979729</v>
+        <v>1977319</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.556939801609923</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.538604762338495</v>
+        <v>0.5386646222766194</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5763809702991334</v>
+        <v>0.5756792816754857</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2836</v>
@@ -13045,19 +13045,19 @@
         <v>2028450</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1976792</v>
+        <v>1975657</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2081351</v>
+        <v>2080724</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.5595455099129593</v>
+        <v>0.559545509912959</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5452958142964746</v>
+        <v>0.5449825373440251</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.574138227133589</v>
+        <v>0.5739652835261183</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4591</v>
@@ -13066,19 +13066,19 @@
         <v>3941403</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3863888</v>
+        <v>3860401</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4032986</v>
+        <v>4023012</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5582777955784649</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5472982517693908</v>
+        <v>0.5468043043551537</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5712500131913009</v>
+        <v>0.5698371997150179</v>
       </c>
     </row>
     <row r="41">
@@ -13095,19 +13095,19 @@
         <v>1116022</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1056848</v>
+        <v>1054788</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1180485</v>
+        <v>1179318</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3249201333208031</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3076921728117417</v>
+        <v>0.3070925050556581</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3436878630720642</v>
+        <v>0.343348101485057</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1690</v>
@@ -13116,19 +13116,19 @@
         <v>1142186</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1094373</v>
+        <v>1091741</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1191375</v>
+        <v>1189809</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.3150707990371272</v>
+        <v>0.3150707990371271</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.30188142767309</v>
+        <v>0.3011553467431524</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3286392662928123</v>
+        <v>0.3282073745020344</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2803</v>
@@ -13137,19 +13137,19 @@
         <v>2258208</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2180777</v>
+        <v>2177489</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2336404</v>
+        <v>2333505</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3198626409490146</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3088949139870416</v>
+        <v>0.3084292047559763</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3309385285485214</v>
+        <v>0.3305280093554955</v>
       </c>
     </row>
     <row r="42">
@@ -13166,19 +13166,19 @@
         <v>277669</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>243330</v>
+        <v>243926</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>313788</v>
+        <v>311154</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08084096523033578</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07084336588289322</v>
+        <v>0.0710168349303742</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09135662871150825</v>
+        <v>0.09058982170439661</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>442</v>
@@ -13187,19 +13187,19 @@
         <v>287742</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>257938</v>
+        <v>262580</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>315949</v>
+        <v>318206</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.07937323206248599</v>
+        <v>0.07937323206248598</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07115179722586069</v>
+        <v>0.07243226415900621</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08715405796876215</v>
+        <v>0.08777671361840066</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>728</v>
@@ -13208,19 +13208,19 @@
         <v>565411</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>522248</v>
+        <v>523137</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>609368</v>
+        <v>610588</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08008730522790046</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07397345585356796</v>
+        <v>0.07409945633379431</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08631352790124205</v>
+        <v>0.08648632558940043</v>
       </c>
     </row>
     <row r="43">
@@ -13237,19 +13237,19 @@
         <v>96986</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>80246</v>
+        <v>79523</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>118110</v>
+        <v>118771</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02823667550015856</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02336296025307895</v>
+        <v>0.02315235308501446</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0343866404537741</v>
+        <v>0.03457914584177006</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>194</v>
@@ -13258,19 +13258,19 @@
         <v>123125</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>105591</v>
+        <v>105549</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>140483</v>
+        <v>140647</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.03396382556482914</v>
+        <v>0.03396382556482913</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0291272299824275</v>
+        <v>0.02911550206194485</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03875211695549269</v>
+        <v>0.03879735150734125</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>298</v>
@@ -13279,19 +13279,19 @@
         <v>220111</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>194531</v>
+        <v>194838</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>250621</v>
+        <v>248396</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03117748519652205</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02755427536590181</v>
+        <v>0.02759774195179596</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03549903489593626</v>
+        <v>0.03518386471167198</v>
       </c>
     </row>
     <row r="44">
@@ -13308,19 +13308,19 @@
         <v>31127</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>21038</v>
+        <v>22231</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>42221</v>
+        <v>46570</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.009062424338779657</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.006124981429768218</v>
+        <v>0.006472412888376414</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0122923379492508</v>
+        <v>0.01355837924524293</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>66</v>
@@ -13329,19 +13329,19 @@
         <v>43671</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>33684</v>
+        <v>33728</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>57914</v>
+        <v>57779</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01204663342259856</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.009291705778982884</v>
+        <v>0.009303860224750864</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01597540268419996</v>
+        <v>0.01593828926406406</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>101</v>
@@ -13350,19 +13350,19 @@
         <v>74798</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>58035</v>
+        <v>60296</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>93116</v>
+        <v>94027</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01059477304809803</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.008220331320187008</v>
+        <v>0.008540585337612143</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01318937113227575</v>
+        <v>0.0133183675977904</v>
       </c>
     </row>
     <row r="45">
